--- a/VersionRecords/Version buyback/版本Bug和特性计划及评审表v5.2.XX_极光组.xlsx
+++ b/VersionRecords/Version buyback/版本Bug和特性计划及评审表v5.2.XX_极光组.xlsx
@@ -17,19 +17,19 @@
     <sheet name="05 数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.1 新特性|Fix Bug'!$A$1:$U$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.1 新特性|Fix Bug'!$A$1:$V$14</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="103">
   <si>
     <t>No</t>
   </si>
@@ -250,41 +250,16 @@
     <t>紧急</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
     <t>极光组</t>
   </si>
   <si>
     <t>New Features</t>
-  </si>
-  <si>
-    <t>王云飞</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-  </si>
-  <si>
-    <t>能</t>
   </si>
   <si>
     <t>苏玉军</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>partnerPC</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>partnerPC、partnerApp、BS</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩美娟</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>蘑菇宝申请时间限制</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -328,13 +303,72 @@
   </si>
   <si>
     <t>蘑菇宝（聚有财）新增蘑菇宝保证金退款管理列表</t>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-1930</t>
+  </si>
+  <si>
+    <t>JIRA ID</t>
+  </si>
+  <si>
+    <t>DV-1931</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-1932</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-1940</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-1933</t>
+  </si>
+  <si>
+    <t>DV-1934</t>
+  </si>
+  <si>
+    <t>DV-1935</t>
+  </si>
+  <si>
+    <t>DV-1936</t>
+  </si>
+  <si>
+    <t>DV-1937</t>
+  </si>
+  <si>
+    <t>DV-1938</t>
+  </si>
+  <si>
+    <t>DV-1939</t>
+  </si>
+  <si>
+    <t>DV-1139</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-1831</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2151</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -573,6 +607,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -641,7 +683,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -784,8 +826,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,8 +896,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,9 +1092,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1068,9 +1148,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1149,8 +1226,47 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="13" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 2 2" xfId="11"/>
@@ -1162,6 +1278,7 @@
     <cellStyle name="常规 6" xfId="1"/>
     <cellStyle name="常规 7" xfId="12"/>
     <cellStyle name="常规 9" xfId="3"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
   </cellStyles>
@@ -1601,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V165"/>
+  <dimension ref="A1:W164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1626,15 +1743,16 @@
     <col min="15" max="15" width="10" style="33" customWidth="1"/>
     <col min="16" max="16" width="12.5" style="33" customWidth="1"/>
     <col min="17" max="17" width="7.625" style="33" customWidth="1"/>
-    <col min="18" max="18" width="12" style="34" customWidth="1"/>
-    <col min="19" max="19" width="17" style="34" customWidth="1"/>
-    <col min="20" max="20" width="14.125" style="34" customWidth="1"/>
-    <col min="21" max="21" width="41.875" style="33" customWidth="1"/>
-    <col min="22" max="22" width="8.875" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="1"/>
+    <col min="18" max="18" width="9.625" style="109" customWidth="1"/>
+    <col min="19" max="19" width="12" style="34" customWidth="1"/>
+    <col min="20" max="20" width="17" style="34" customWidth="1"/>
+    <col min="21" max="21" width="14.125" style="34" customWidth="1"/>
+    <col min="22" max="22" width="41.875" style="33" customWidth="1"/>
+    <col min="23" max="23" width="8.875" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="30" customFormat="1" ht="27.75" thickBot="1">
+    <row r="1" spans="1:23" s="30" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1686,20 +1804,23 @@
       <c r="Q1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="T1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="U1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="V1" s="35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="31" customFormat="1" ht="27" customHeight="1">
+    <row r="2" spans="1:23" s="31" customFormat="1" ht="27" customHeight="1">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -1710,53 +1831,38 @@
         <v>68</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="93">
-        <v>42748</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="93">
-        <v>42748</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="91"/>
       <c r="K2" s="38"/>
       <c r="L2" s="47" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" s="93">
-        <v>42748</v>
-      </c>
-      <c r="Q2" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="51"/>
-    </row>
-    <row r="3" spans="1:22" s="87" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="70">
+        <v>69</v>
+      </c>
+      <c r="N2" s="38"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="120" t="s">
+        <v>100</v>
+      </c>
+      <c r="S2" s="116"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="51"/>
+    </row>
+    <row r="3" spans="1:23" s="85" customFormat="1" ht="27" customHeight="1">
+      <c r="A3" s="69">
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
@@ -1766,53 +1872,38 @@
         <v>68</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="93">
-        <v>42748</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="93">
-        <v>42748</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="91"/>
       <c r="K3" s="38"/>
       <c r="L3" s="47" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M3" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="P3" s="93">
-        <v>42749</v>
-      </c>
-      <c r="Q3" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="86"/>
-    </row>
-    <row r="4" spans="1:22" ht="27" customHeight="1">
-      <c r="A4" s="70">
+        <v>69</v>
+      </c>
+      <c r="N3" s="38"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="120" t="s">
+        <v>101</v>
+      </c>
+      <c r="S3" s="117"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="84"/>
+    </row>
+    <row r="4" spans="1:23" ht="27" customHeight="1">
+      <c r="A4" s="69">
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
@@ -1822,10 +1913,10 @@
         <v>68</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="36"/>
       <c r="G4" s="38"/>
@@ -1833,18 +1924,25 @@
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
       <c r="K4" s="38"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="82"/>
+      <c r="L4" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="81"/>
       <c r="O4" s="44"/>
       <c r="P4" s="39"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="S4" s="118"/>
       <c r="T4" s="44"/>
-      <c r="U4" s="45"/>
-    </row>
-    <row r="5" spans="1:22" ht="27" customHeight="1">
+      <c r="U4" s="44"/>
+      <c r="V4" s="45"/>
+    </row>
+    <row r="5" spans="1:23" ht="27" customHeight="1">
       <c r="A5" s="36">
         <v>4</v>
       </c>
@@ -1855,10 +1953,10 @@
         <v>68</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -1866,19 +1964,26 @@
       <c r="I5" s="39"/>
       <c r="J5" s="39"/>
       <c r="K5" s="38"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="82"/>
+      <c r="L5" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="81"/>
       <c r="O5" s="44"/>
       <c r="P5" s="39"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="120" t="s">
+        <v>87</v>
+      </c>
+      <c r="S5" s="118"/>
       <c r="T5" s="44"/>
-      <c r="U5" s="45"/>
-    </row>
-    <row r="6" spans="1:22" s="31" customFormat="1" ht="27" customHeight="1">
-      <c r="A6" s="70">
+      <c r="U5" s="44"/>
+      <c r="V5" s="45"/>
+    </row>
+    <row r="6" spans="1:23" s="31" customFormat="1" ht="27" customHeight="1">
+      <c r="A6" s="69">
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -1887,32 +1992,39 @@
       <c r="C6" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="89" t="s">
-        <v>83</v>
+      <c r="D6" s="87" t="s">
+        <v>76</v>
       </c>
       <c r="E6" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="91"/>
-      <c r="V6" s="51"/>
-    </row>
-    <row r="7" spans="1:22" s="31" customFormat="1" ht="27" customHeight="1">
-      <c r="A7" s="70">
+      <c r="M6" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="71"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="113"/>
+      <c r="R6" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="S6" s="118"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="51"/>
+    </row>
+    <row r="7" spans="1:23" s="31" customFormat="1" ht="27" customHeight="1">
+      <c r="A7" s="69">
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
@@ -1921,31 +2033,38 @@
       <c r="C7" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="89" t="s">
-        <v>84</v>
+      <c r="D7" s="87" t="s">
+        <v>77</v>
       </c>
       <c r="E7" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="92"/>
-      <c r="V7" s="51"/>
-    </row>
-    <row r="8" spans="1:22" ht="27" customHeight="1">
+      <c r="M7" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="71"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="113"/>
+      <c r="R7" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="S7" s="118"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="51"/>
+    </row>
+    <row r="8" spans="1:23" ht="27" customHeight="1">
       <c r="A8" s="36">
         <v>7</v>
       </c>
@@ -1956,30 +2075,37 @@
         <v>68</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E8" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
+      <c r="M8" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="70"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="120" t="s">
+        <v>93</v>
+      </c>
+      <c r="S8" s="118"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
-    </row>
-    <row r="9" spans="1:22" ht="27" customHeight="1">
-      <c r="A9" s="70">
+      <c r="U8" s="44"/>
+      <c r="V8" s="45"/>
+    </row>
+    <row r="9" spans="1:23" ht="27" customHeight="1">
+      <c r="A9" s="69">
         <v>8</v>
       </c>
       <c r="B9" s="36" t="s">
@@ -1989,30 +2115,37 @@
         <v>68</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E9" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
+      <c r="M9" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="70"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="114"/>
+      <c r="R9" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="S9" s="118"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="45"/>
-    </row>
-    <row r="10" spans="1:22" ht="27" customHeight="1">
-      <c r="A10" s="70">
+      <c r="U9" s="44"/>
+      <c r="V9" s="45"/>
+    </row>
+    <row r="10" spans="1:23" s="31" customFormat="1" ht="27" customHeight="1">
+      <c r="A10" s="36">
         <v>9</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -2021,31 +2154,39 @@
       <c r="C10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="43" t="s">
-        <v>87</v>
+      <c r="D10" s="68" t="s">
+        <v>81</v>
       </c>
       <c r="E10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="45"/>
-    </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="27" customHeight="1">
-      <c r="A11" s="36">
+      <c r="M10" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="64"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="120" t="s">
+        <v>95</v>
+      </c>
+      <c r="S10" s="119"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="51"/>
+    </row>
+    <row r="11" spans="1:23" s="31" customFormat="1" ht="27" customHeight="1">
+      <c r="A11" s="69">
         <v>10</v>
       </c>
       <c r="B11" s="36" t="s">
@@ -2054,32 +2195,39 @@
       <c r="C11" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="69" t="s">
-        <v>88</v>
+      <c r="D11" s="63" t="s">
+        <v>82</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="51"/>
-    </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="27" customHeight="1">
-      <c r="A12" s="70">
+        <v>70</v>
+      </c>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="64"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="S11" s="118"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="51"/>
+    </row>
+    <row r="12" spans="1:23" s="31" customFormat="1" ht="27" customHeight="1">
+      <c r="A12" s="36">
         <v>11</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -2088,32 +2236,39 @@
       <c r="C12" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="64" t="s">
-        <v>89</v>
+      <c r="D12" s="63" t="s">
+        <v>83</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="51"/>
-    </row>
-    <row r="13" spans="1:22" s="31" customFormat="1" ht="27" customHeight="1">
-      <c r="A13" s="70">
+        <v>70</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" s="64"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="120" t="s">
+        <v>97</v>
+      </c>
+      <c r="S12" s="118"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="51"/>
+    </row>
+    <row r="13" spans="1:23" s="31" customFormat="1" ht="27" customHeight="1">
+      <c r="A13" s="69">
         <v>12</v>
       </c>
       <c r="B13" s="36" t="s">
@@ -2122,31 +2277,38 @@
       <c r="C13" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="64" t="s">
-        <v>90</v>
+      <c r="D13" s="63" t="s">
+        <v>84</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="51"/>
-    </row>
-    <row r="14" spans="1:22" s="31" customFormat="1" ht="27" customHeight="1">
+        <v>70</v>
+      </c>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="N13" s="64"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="120" t="s">
+        <v>98</v>
+      </c>
+      <c r="S13" s="118"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="51"/>
+    </row>
+    <row r="14" spans="1:23" s="31" customFormat="1" ht="27" customHeight="1">
       <c r="A14" s="36">
         <v>13</v>
       </c>
@@ -2156,32 +2318,39 @@
       <c r="C14" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="51"/>
-    </row>
-    <row r="15" spans="1:22" s="31" customFormat="1" ht="27" customHeight="1">
-      <c r="A15" s="70">
+      <c r="M14" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" s="64"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="120" t="s">
+        <v>99</v>
+      </c>
+      <c r="S14" s="118"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="51"/>
+    </row>
+    <row r="15" spans="1:23" ht="27" customHeight="1">
+      <c r="A15" s="69">
         <v>14</v>
       </c>
       <c r="B15" s="36" t="s">
@@ -2190,55 +2359,61 @@
       <c r="C15" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="70"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="114"/>
+      <c r="R15" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="51"/>
-    </row>
-    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="44"/>
+      <c r="S15" s="118"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="45"/>
+    </row>
+    <row r="16" spans="1:23" ht="16.5">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="51"/>
-    </row>
-    <row r="17" spans="1:21" ht="16.5">
+      <c r="U16" s="44"/>
+      <c r="V16" s="52"/>
+    </row>
+    <row r="17" spans="1:22" ht="16.5">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -2256,12 +2431,13 @@
       <c r="O17" s="47"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="47"/>
-      <c r="R17" s="44"/>
+      <c r="R17" s="47"/>
       <c r="S17" s="44"/>
       <c r="T17" s="44"/>
-      <c r="U17" s="52"/>
-    </row>
-    <row r="18" spans="1:21" ht="16.5">
+      <c r="U17" s="44"/>
+      <c r="V17" s="52"/>
+    </row>
+    <row r="18" spans="1:22" ht="16.5">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -2279,12 +2455,13 @@
       <c r="O18" s="47"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="47"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="52"/>
-    </row>
-    <row r="19" spans="1:21" ht="16.5">
+      <c r="R18" s="108"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="55"/>
+    </row>
+    <row r="19" spans="1:22" ht="16.5">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -2302,12 +2479,13 @@
       <c r="O19" s="47"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="47"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="55"/>
-    </row>
-    <row r="20" spans="1:21" ht="16.5">
+      <c r="R19" s="47"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="55"/>
+    </row>
+    <row r="20" spans="1:22" ht="16.5">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -2319,18 +2497,19 @@
       <c r="I20" s="38"/>
       <c r="J20" s="39"/>
       <c r="K20" s="38"/>
-      <c r="L20" s="47"/>
+      <c r="L20" s="38"/>
       <c r="M20" s="38"/>
       <c r="N20" s="47"/>
       <c r="O20" s="47"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="47"/>
-      <c r="R20" s="56"/>
+      <c r="R20" s="47"/>
       <c r="S20" s="56"/>
       <c r="T20" s="56"/>
-      <c r="U20" s="55"/>
-    </row>
-    <row r="21" spans="1:21" ht="16.5">
+      <c r="U20" s="57"/>
+      <c r="V20" s="55"/>
+    </row>
+    <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2348,12 +2527,13 @@
       <c r="O21" s="47"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="47"/>
-      <c r="R21" s="56"/>
+      <c r="R21" s="47"/>
       <c r="S21" s="56"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="55"/>
-    </row>
-    <row r="22" spans="1:21" ht="16.5">
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="55"/>
+    </row>
+    <row r="22" spans="1:22" ht="16.5">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2365,18 +2545,19 @@
       <c r="I22" s="38"/>
       <c r="J22" s="39"/>
       <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
+      <c r="L22" s="47"/>
       <c r="M22" s="38"/>
       <c r="N22" s="47"/>
       <c r="O22" s="47"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="47"/>
-      <c r="R22" s="56"/>
+      <c r="R22" s="47"/>
       <c r="S22" s="56"/>
       <c r="T22" s="56"/>
-      <c r="U22" s="55"/>
-    </row>
-    <row r="23" spans="1:21" ht="16.5">
+      <c r="U22" s="56"/>
+      <c r="V22" s="55"/>
+    </row>
+    <row r="23" spans="1:22" ht="16.5">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2394,12 +2575,13 @@
       <c r="O23" s="47"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="47"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="55"/>
-    </row>
-    <row r="24" spans="1:21" ht="16.5">
+      <c r="R23" s="108"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="47"/>
+    </row>
+    <row r="24" spans="1:22" ht="16.5">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2417,12 +2599,13 @@
       <c r="O24" s="47"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="47"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="47"/>
-    </row>
-    <row r="25" spans="1:21" ht="16.5">
+      <c r="R24" s="47"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="52"/>
+    </row>
+    <row r="25" spans="1:22" ht="16.5">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2440,12 +2623,13 @@
       <c r="O25" s="47"/>
       <c r="P25" s="39"/>
       <c r="Q25" s="47"/>
-      <c r="R25" s="44"/>
+      <c r="R25" s="47"/>
       <c r="S25" s="44"/>
       <c r="T25" s="44"/>
-      <c r="U25" s="52"/>
-    </row>
-    <row r="26" spans="1:21" ht="16.5">
+      <c r="U25" s="44"/>
+      <c r="V25" s="52"/>
+    </row>
+    <row r="26" spans="1:22" ht="16.5">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2463,12 +2647,13 @@
       <c r="O26" s="47"/>
       <c r="P26" s="39"/>
       <c r="Q26" s="47"/>
-      <c r="R26" s="44"/>
+      <c r="R26" s="47"/>
       <c r="S26" s="44"/>
       <c r="T26" s="44"/>
-      <c r="U26" s="52"/>
-    </row>
-    <row r="27" spans="1:21" ht="16.5">
+      <c r="U26" s="44"/>
+      <c r="V26" s="52"/>
+    </row>
+    <row r="27" spans="1:22" ht="16.5">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2479,42 +2664,44 @@
       <c r="H27" s="39"/>
       <c r="I27" s="38"/>
       <c r="J27" s="39"/>
-      <c r="K27" s="38"/>
+      <c r="K27" s="42"/>
       <c r="L27" s="47"/>
       <c r="M27" s="38"/>
       <c r="N27" s="47"/>
       <c r="O27" s="47"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="47"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="52"/>
-    </row>
-    <row r="28" spans="1:21" ht="16.5">
+      <c r="R27" s="47"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="55"/>
+    </row>
+    <row r="28" spans="1:22" ht="16.5">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
-      <c r="D28" s="41"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="38"/>
-      <c r="F28" s="42"/>
+      <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="39"/>
       <c r="I28" s="38"/>
       <c r="J28" s="39"/>
-      <c r="K28" s="42"/>
+      <c r="K28" s="38"/>
       <c r="L28" s="47"/>
       <c r="M28" s="38"/>
-      <c r="N28" s="47"/>
+      <c r="N28" s="38"/>
       <c r="O28" s="47"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="47"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="55"/>
-    </row>
-    <row r="29" spans="1:21" ht="16.5">
+      <c r="R28" s="47"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="50"/>
+    </row>
+    <row r="29" spans="1:22" ht="16.5">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2532,12 +2719,13 @@
       <c r="O29" s="47"/>
       <c r="P29" s="39"/>
       <c r="Q29" s="47"/>
-      <c r="R29" s="44"/>
+      <c r="R29" s="47"/>
       <c r="S29" s="44"/>
       <c r="T29" s="44"/>
-      <c r="U29" s="50"/>
-    </row>
-    <row r="30" spans="1:21" ht="16.5">
+      <c r="U29" s="44"/>
+      <c r="V29" s="52"/>
+    </row>
+    <row r="30" spans="1:22" ht="16.5">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2555,12 +2743,13 @@
       <c r="O30" s="47"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="47"/>
-      <c r="R30" s="44"/>
+      <c r="R30" s="47"/>
       <c r="S30" s="44"/>
       <c r="T30" s="44"/>
-      <c r="U30" s="52"/>
-    </row>
-    <row r="31" spans="1:21" ht="16.5">
+      <c r="U30" s="44"/>
+      <c r="V30" s="52"/>
+    </row>
+    <row r="31" spans="1:22" ht="16.5">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2578,12 +2767,13 @@
       <c r="O31" s="47"/>
       <c r="P31" s="39"/>
       <c r="Q31" s="47"/>
-      <c r="R31" s="44"/>
+      <c r="R31" s="47"/>
       <c r="S31" s="44"/>
       <c r="T31" s="44"/>
-      <c r="U31" s="52"/>
-    </row>
-    <row r="32" spans="1:21" ht="16.5">
+      <c r="U31" s="44"/>
+      <c r="V31" s="52"/>
+    </row>
+    <row r="32" spans="1:22" ht="16.5">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2601,12 +2791,13 @@
       <c r="O32" s="47"/>
       <c r="P32" s="39"/>
       <c r="Q32" s="47"/>
-      <c r="R32" s="44"/>
+      <c r="R32" s="47"/>
       <c r="S32" s="44"/>
       <c r="T32" s="44"/>
-      <c r="U32" s="52"/>
-    </row>
-    <row r="33" spans="1:21" ht="16.5">
+      <c r="U32" s="44"/>
+      <c r="V32" s="52"/>
+    </row>
+    <row r="33" spans="1:22" ht="16.5">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2624,12 +2815,13 @@
       <c r="O33" s="47"/>
       <c r="P33" s="39"/>
       <c r="Q33" s="47"/>
-      <c r="R33" s="44"/>
+      <c r="R33" s="47"/>
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
-      <c r="U33" s="52"/>
-    </row>
-    <row r="34" spans="1:21" ht="16.5">
+      <c r="U33" s="44"/>
+      <c r="V33" s="52"/>
+    </row>
+    <row r="34" spans="1:22" ht="16.5">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2647,12 +2839,13 @@
       <c r="O34" s="47"/>
       <c r="P34" s="39"/>
       <c r="Q34" s="47"/>
-      <c r="R34" s="44"/>
+      <c r="R34" s="47"/>
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
-      <c r="U34" s="52"/>
-    </row>
-    <row r="35" spans="1:21" ht="16.5">
+      <c r="U34" s="44"/>
+      <c r="V34" s="52"/>
+    </row>
+    <row r="35" spans="1:22" ht="16.5">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2670,12 +2863,13 @@
       <c r="O35" s="47"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="47"/>
-      <c r="R35" s="44"/>
+      <c r="R35" s="47"/>
       <c r="S35" s="44"/>
       <c r="T35" s="44"/>
-      <c r="U35" s="52"/>
-    </row>
-    <row r="36" spans="1:21" ht="16.5">
+      <c r="U35" s="44"/>
+      <c r="V35" s="52"/>
+    </row>
+    <row r="36" spans="1:22" ht="16.5">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2693,12 +2887,13 @@
       <c r="O36" s="47"/>
       <c r="P36" s="39"/>
       <c r="Q36" s="47"/>
-      <c r="R36" s="44"/>
+      <c r="R36" s="47"/>
       <c r="S36" s="44"/>
       <c r="T36" s="44"/>
-      <c r="U36" s="52"/>
-    </row>
-    <row r="37" spans="1:21" ht="16.5">
+      <c r="U36" s="44"/>
+      <c r="V36" s="52"/>
+    </row>
+    <row r="37" spans="1:22" ht="16.5">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2716,12 +2911,13 @@
       <c r="O37" s="47"/>
       <c r="P37" s="39"/>
       <c r="Q37" s="47"/>
-      <c r="R37" s="44"/>
+      <c r="R37" s="47"/>
       <c r="S37" s="44"/>
       <c r="T37" s="44"/>
-      <c r="U37" s="52"/>
-    </row>
-    <row r="38" spans="1:21" ht="16.5">
+      <c r="U37" s="44"/>
+      <c r="V37" s="52"/>
+    </row>
+    <row r="38" spans="1:22" ht="16.5">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2739,35 +2935,37 @@
       <c r="O38" s="47"/>
       <c r="P38" s="39"/>
       <c r="Q38" s="47"/>
-      <c r="R38" s="44"/>
+      <c r="R38" s="47"/>
       <c r="S38" s="44"/>
       <c r="T38" s="44"/>
-      <c r="U38" s="52"/>
-    </row>
-    <row r="39" spans="1:21" ht="16.5">
+      <c r="U38" s="44"/>
+      <c r="V38" s="52"/>
+    </row>
+    <row r="39" spans="1:22" ht="16.5">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
-      <c r="D39" s="37"/>
+      <c r="D39" s="40"/>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
       <c r="H39" s="39"/>
-      <c r="I39" s="38"/>
+      <c r="I39" s="39"/>
       <c r="J39" s="39"/>
       <c r="K39" s="38"/>
       <c r="L39" s="47"/>
-      <c r="M39" s="38"/>
+      <c r="M39" s="47"/>
       <c r="N39" s="38"/>
       <c r="O39" s="47"/>
       <c r="P39" s="39"/>
       <c r="Q39" s="47"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="52"/>
-    </row>
-    <row r="40" spans="1:21" ht="16.5">
+      <c r="R39" s="108"/>
+      <c r="S39" s="53"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="52"/>
+    </row>
+    <row r="40" spans="1:22" ht="16.5">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2785,35 +2983,37 @@
       <c r="O40" s="47"/>
       <c r="P40" s="39"/>
       <c r="Q40" s="47"/>
-      <c r="R40" s="53"/>
+      <c r="R40" s="108"/>
       <c r="S40" s="53"/>
       <c r="T40" s="53"/>
-      <c r="U40" s="52"/>
-    </row>
-    <row r="41" spans="1:21" ht="16.5">
+      <c r="U40" s="53"/>
+      <c r="V40" s="52"/>
+    </row>
+    <row r="41" spans="1:22" ht="16.5">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
-      <c r="D41" s="40"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="38"/>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
       <c r="H41" s="39"/>
       <c r="I41" s="39"/>
       <c r="J41" s="39"/>
-      <c r="K41" s="38"/>
+      <c r="K41" s="48"/>
       <c r="L41" s="47"/>
       <c r="M41" s="47"/>
       <c r="N41" s="38"/>
       <c r="O41" s="47"/>
       <c r="P41" s="39"/>
       <c r="Q41" s="47"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="52"/>
-    </row>
-    <row r="42" spans="1:21" ht="16.5">
+      <c r="R41" s="47"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="45"/>
+    </row>
+    <row r="42" spans="1:22" ht="16.5">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -2831,12 +3031,13 @@
       <c r="O42" s="47"/>
       <c r="P42" s="39"/>
       <c r="Q42" s="47"/>
-      <c r="R42" s="44"/>
+      <c r="R42" s="47"/>
       <c r="S42" s="44"/>
       <c r="T42" s="44"/>
-      <c r="U42" s="45"/>
-    </row>
-    <row r="43" spans="1:21" ht="16.5">
+      <c r="U42" s="44"/>
+      <c r="V42" s="45"/>
+    </row>
+    <row r="43" spans="1:22" ht="16.5">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -2854,12 +3055,13 @@
       <c r="O43" s="47"/>
       <c r="P43" s="39"/>
       <c r="Q43" s="47"/>
-      <c r="R43" s="44"/>
+      <c r="R43" s="47"/>
       <c r="S43" s="44"/>
       <c r="T43" s="44"/>
-      <c r="U43" s="45"/>
-    </row>
-    <row r="44" spans="1:21" ht="16.5">
+      <c r="U43" s="44"/>
+      <c r="V43" s="45"/>
+    </row>
+    <row r="44" spans="1:22" ht="16.5">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -2877,12 +3079,13 @@
       <c r="O44" s="47"/>
       <c r="P44" s="39"/>
       <c r="Q44" s="47"/>
-      <c r="R44" s="44"/>
+      <c r="R44" s="47"/>
       <c r="S44" s="44"/>
       <c r="T44" s="44"/>
-      <c r="U44" s="45"/>
-    </row>
-    <row r="45" spans="1:21" ht="16.5">
+      <c r="U44" s="44"/>
+      <c r="V44" s="45"/>
+    </row>
+    <row r="45" spans="1:22" ht="16.5">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -2900,12 +3103,13 @@
       <c r="O45" s="47"/>
       <c r="P45" s="39"/>
       <c r="Q45" s="47"/>
-      <c r="R45" s="44"/>
+      <c r="R45" s="47"/>
       <c r="S45" s="44"/>
       <c r="T45" s="44"/>
-      <c r="U45" s="45"/>
-    </row>
-    <row r="46" spans="1:21" ht="16.5">
+      <c r="U45" s="44"/>
+      <c r="V45" s="45"/>
+    </row>
+    <row r="46" spans="1:22" ht="16.5">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -2923,12 +3127,13 @@
       <c r="O46" s="47"/>
       <c r="P46" s="39"/>
       <c r="Q46" s="47"/>
-      <c r="R46" s="44"/>
+      <c r="R46" s="47"/>
       <c r="S46" s="44"/>
       <c r="T46" s="44"/>
-      <c r="U46" s="45"/>
-    </row>
-    <row r="47" spans="1:21" ht="16.5">
+      <c r="U46" s="44"/>
+      <c r="V46" s="45"/>
+    </row>
+    <row r="47" spans="1:22" ht="16.5">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -2946,35 +3151,37 @@
       <c r="O47" s="47"/>
       <c r="P47" s="39"/>
       <c r="Q47" s="47"/>
-      <c r="R47" s="44"/>
+      <c r="R47" s="47"/>
       <c r="S47" s="44"/>
       <c r="T47" s="44"/>
-      <c r="U47" s="45"/>
-    </row>
-    <row r="48" spans="1:21" ht="16.5">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="38"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="45"/>
+    </row>
+    <row r="48" spans="1:22" ht="16.5">
+      <c r="A48" s="44"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="44"/>
       <c r="F48" s="38"/>
       <c r="G48" s="38"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="46"/>
       <c r="K48" s="48"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
       <c r="S48" s="44"/>
       <c r="T48" s="44"/>
-      <c r="U48" s="45"/>
-    </row>
-    <row r="49" spans="1:21" ht="16.5">
+      <c r="U48" s="44"/>
+      <c r="V48" s="45"/>
+    </row>
+    <row r="49" spans="1:22" ht="16.5">
       <c r="A49" s="44"/>
       <c r="B49" s="44"/>
       <c r="C49" s="44"/>
@@ -2992,12 +3199,13 @@
       <c r="O49" s="44"/>
       <c r="P49" s="46"/>
       <c r="Q49" s="45"/>
-      <c r="R49" s="44"/>
+      <c r="R49" s="45"/>
       <c r="S49" s="44"/>
       <c r="T49" s="44"/>
-      <c r="U49" s="45"/>
-    </row>
-    <row r="50" spans="1:21" ht="16.5">
+      <c r="U49" s="44"/>
+      <c r="V49" s="45"/>
+    </row>
+    <row r="50" spans="1:22" ht="16.5">
       <c r="A50" s="44"/>
       <c r="B50" s="44"/>
       <c r="C50" s="44"/>
@@ -3015,12 +3223,13 @@
       <c r="O50" s="44"/>
       <c r="P50" s="46"/>
       <c r="Q50" s="45"/>
-      <c r="R50" s="44"/>
+      <c r="R50" s="45"/>
       <c r="S50" s="44"/>
       <c r="T50" s="44"/>
-      <c r="U50" s="45"/>
-    </row>
-    <row r="51" spans="1:21" ht="16.5">
+      <c r="U50" s="44"/>
+      <c r="V50" s="45"/>
+    </row>
+    <row r="51" spans="1:22" ht="16.5">
       <c r="A51" s="44"/>
       <c r="B51" s="44"/>
       <c r="C51" s="44"/>
@@ -3038,12 +3247,13 @@
       <c r="O51" s="44"/>
       <c r="P51" s="46"/>
       <c r="Q51" s="45"/>
-      <c r="R51" s="44"/>
+      <c r="R51" s="45"/>
       <c r="S51" s="44"/>
       <c r="T51" s="44"/>
-      <c r="U51" s="45"/>
-    </row>
-    <row r="52" spans="1:21" ht="16.5">
+      <c r="U51" s="44"/>
+      <c r="V51" s="45"/>
+    </row>
+    <row r="52" spans="1:22" ht="16.5">
       <c r="A52" s="44"/>
       <c r="B52" s="44"/>
       <c r="C52" s="44"/>
@@ -3061,12 +3271,13 @@
       <c r="O52" s="44"/>
       <c r="P52" s="46"/>
       <c r="Q52" s="45"/>
-      <c r="R52" s="44"/>
+      <c r="R52" s="45"/>
       <c r="S52" s="44"/>
       <c r="T52" s="44"/>
-      <c r="U52" s="45"/>
-    </row>
-    <row r="53" spans="1:21" ht="16.5">
+      <c r="U52" s="44"/>
+      <c r="V52" s="45"/>
+    </row>
+    <row r="53" spans="1:22" ht="16.5">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -3084,12 +3295,13 @@
       <c r="O53" s="44"/>
       <c r="P53" s="46"/>
       <c r="Q53" s="45"/>
-      <c r="R53" s="44"/>
+      <c r="R53" s="45"/>
       <c r="S53" s="44"/>
       <c r="T53" s="44"/>
-      <c r="U53" s="45"/>
-    </row>
-    <row r="54" spans="1:21" ht="16.5">
+      <c r="U53" s="44"/>
+      <c r="V53" s="45"/>
+    </row>
+    <row r="54" spans="1:22" ht="16.5">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -3107,12 +3319,13 @@
       <c r="O54" s="44"/>
       <c r="P54" s="46"/>
       <c r="Q54" s="45"/>
-      <c r="R54" s="44"/>
+      <c r="R54" s="45"/>
       <c r="S54" s="44"/>
       <c r="T54" s="44"/>
-      <c r="U54" s="45"/>
-    </row>
-    <row r="55" spans="1:21" ht="16.5">
+      <c r="U54" s="44"/>
+      <c r="V54" s="45"/>
+    </row>
+    <row r="55" spans="1:22" ht="16.5">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -3130,12 +3343,13 @@
       <c r="O55" s="44"/>
       <c r="P55" s="46"/>
       <c r="Q55" s="45"/>
-      <c r="R55" s="44"/>
+      <c r="R55" s="45"/>
       <c r="S55" s="44"/>
       <c r="T55" s="44"/>
-      <c r="U55" s="45"/>
-    </row>
-    <row r="56" spans="1:21" ht="16.5">
+      <c r="U55" s="44"/>
+      <c r="V55" s="45"/>
+    </row>
+    <row r="56" spans="1:22" ht="16.5">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -3153,12 +3367,13 @@
       <c r="O56" s="44"/>
       <c r="P56" s="46"/>
       <c r="Q56" s="45"/>
-      <c r="R56" s="44"/>
+      <c r="R56" s="45"/>
       <c r="S56" s="44"/>
       <c r="T56" s="44"/>
-      <c r="U56" s="45"/>
-    </row>
-    <row r="57" spans="1:21" ht="16.5">
+      <c r="U56" s="44"/>
+      <c r="V56" s="45"/>
+    </row>
+    <row r="57" spans="1:22" ht="16.5">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -3176,12 +3391,13 @@
       <c r="O57" s="44"/>
       <c r="P57" s="46"/>
       <c r="Q57" s="45"/>
-      <c r="R57" s="44"/>
+      <c r="R57" s="45"/>
       <c r="S57" s="44"/>
       <c r="T57" s="44"/>
-      <c r="U57" s="45"/>
-    </row>
-    <row r="58" spans="1:21" ht="16.5">
+      <c r="U57" s="44"/>
+      <c r="V57" s="45"/>
+    </row>
+    <row r="58" spans="1:22" ht="16.5">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -3199,12 +3415,13 @@
       <c r="O58" s="44"/>
       <c r="P58" s="46"/>
       <c r="Q58" s="45"/>
-      <c r="R58" s="44"/>
+      <c r="R58" s="45"/>
       <c r="S58" s="44"/>
       <c r="T58" s="44"/>
-      <c r="U58" s="45"/>
-    </row>
-    <row r="59" spans="1:21" ht="16.5">
+      <c r="U58" s="44"/>
+      <c r="V58" s="45"/>
+    </row>
+    <row r="59" spans="1:22" ht="16.5">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -3222,12 +3439,13 @@
       <c r="O59" s="44"/>
       <c r="P59" s="46"/>
       <c r="Q59" s="45"/>
-      <c r="R59" s="44"/>
+      <c r="R59" s="45"/>
       <c r="S59" s="44"/>
       <c r="T59" s="44"/>
-      <c r="U59" s="45"/>
-    </row>
-    <row r="60" spans="1:21" ht="16.5">
+      <c r="U59" s="44"/>
+      <c r="V59" s="45"/>
+    </row>
+    <row r="60" spans="1:22" ht="16.5">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -3245,12 +3463,13 @@
       <c r="O60" s="44"/>
       <c r="P60" s="46"/>
       <c r="Q60" s="45"/>
-      <c r="R60" s="44"/>
+      <c r="R60" s="45"/>
       <c r="S60" s="44"/>
       <c r="T60" s="44"/>
-      <c r="U60" s="45"/>
-    </row>
-    <row r="61" spans="1:21" ht="16.5">
+      <c r="U60" s="44"/>
+      <c r="V60" s="45"/>
+    </row>
+    <row r="61" spans="1:22" ht="16.5">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -3268,12 +3487,13 @@
       <c r="O61" s="44"/>
       <c r="P61" s="46"/>
       <c r="Q61" s="45"/>
-      <c r="R61" s="44"/>
+      <c r="R61" s="45"/>
       <c r="S61" s="44"/>
       <c r="T61" s="44"/>
-      <c r="U61" s="45"/>
-    </row>
-    <row r="62" spans="1:21" ht="16.5">
+      <c r="U61" s="44"/>
+      <c r="V61" s="45"/>
+    </row>
+    <row r="62" spans="1:22" ht="16.5">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -3291,12 +3511,13 @@
       <c r="O62" s="44"/>
       <c r="P62" s="46"/>
       <c r="Q62" s="45"/>
-      <c r="R62" s="44"/>
+      <c r="R62" s="45"/>
       <c r="S62" s="44"/>
       <c r="T62" s="44"/>
-      <c r="U62" s="45"/>
-    </row>
-    <row r="63" spans="1:21" ht="16.5">
+      <c r="U62" s="44"/>
+      <c r="V62" s="45"/>
+    </row>
+    <row r="63" spans="1:22" ht="16.5">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -3314,19 +3535,20 @@
       <c r="O63" s="44"/>
       <c r="P63" s="46"/>
       <c r="Q63" s="45"/>
-      <c r="R63" s="44"/>
+      <c r="R63" s="45"/>
       <c r="S63" s="44"/>
       <c r="T63" s="44"/>
-      <c r="U63" s="45"/>
-    </row>
-    <row r="64" spans="1:21" ht="16.5">
+      <c r="U63" s="44"/>
+      <c r="V63" s="45"/>
+    </row>
+    <row r="64" spans="1:22" ht="16.5">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
       <c r="D64" s="45"/>
       <c r="E64" s="44"/>
       <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
+      <c r="G64" s="44"/>
       <c r="H64" s="46"/>
       <c r="I64" s="44"/>
       <c r="J64" s="46"/>
@@ -3337,12 +3559,13 @@
       <c r="O64" s="44"/>
       <c r="P64" s="46"/>
       <c r="Q64" s="45"/>
-      <c r="R64" s="44"/>
+      <c r="R64" s="45"/>
       <c r="S64" s="44"/>
       <c r="T64" s="44"/>
-      <c r="U64" s="45"/>
-    </row>
-    <row r="65" spans="1:21" ht="16.5">
+      <c r="U64" s="44"/>
+      <c r="V64" s="45"/>
+    </row>
+    <row r="65" spans="1:22" ht="16.5">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -3360,12 +3583,13 @@
       <c r="O65" s="44"/>
       <c r="P65" s="46"/>
       <c r="Q65" s="45"/>
-      <c r="R65" s="44"/>
+      <c r="R65" s="45"/>
       <c r="S65" s="44"/>
       <c r="T65" s="44"/>
-      <c r="U65" s="45"/>
-    </row>
-    <row r="66" spans="1:21" ht="16.5">
+      <c r="U65" s="44"/>
+      <c r="V65" s="45"/>
+    </row>
+    <row r="66" spans="1:22" ht="16.5">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -3383,12 +3607,13 @@
       <c r="O66" s="44"/>
       <c r="P66" s="46"/>
       <c r="Q66" s="45"/>
-      <c r="R66" s="44"/>
+      <c r="R66" s="45"/>
       <c r="S66" s="44"/>
       <c r="T66" s="44"/>
-      <c r="U66" s="45"/>
-    </row>
-    <row r="67" spans="1:21" ht="16.5">
+      <c r="U66" s="44"/>
+      <c r="V66" s="45"/>
+    </row>
+    <row r="67" spans="1:22" ht="16.5">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -3406,12 +3631,13 @@
       <c r="O67" s="44"/>
       <c r="P67" s="46"/>
       <c r="Q67" s="45"/>
-      <c r="R67" s="44"/>
+      <c r="R67" s="45"/>
       <c r="S67" s="44"/>
       <c r="T67" s="44"/>
-      <c r="U67" s="45"/>
-    </row>
-    <row r="68" spans="1:21" ht="16.5">
+      <c r="U67" s="44"/>
+      <c r="V67" s="45"/>
+    </row>
+    <row r="68" spans="1:22" ht="16.5">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -3429,12 +3655,13 @@
       <c r="O68" s="44"/>
       <c r="P68" s="46"/>
       <c r="Q68" s="45"/>
-      <c r="R68" s="44"/>
+      <c r="R68" s="45"/>
       <c r="S68" s="44"/>
       <c r="T68" s="44"/>
-      <c r="U68" s="45"/>
-    </row>
-    <row r="69" spans="1:21" ht="16.5">
+      <c r="U68" s="44"/>
+      <c r="V68" s="45"/>
+    </row>
+    <row r="69" spans="1:22" ht="16.5">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -3452,18 +3679,19 @@
       <c r="O69" s="44"/>
       <c r="P69" s="46"/>
       <c r="Q69" s="45"/>
-      <c r="R69" s="44"/>
+      <c r="R69" s="45"/>
       <c r="S69" s="44"/>
       <c r="T69" s="44"/>
-      <c r="U69" s="45"/>
-    </row>
-    <row r="70" spans="1:21" ht="16.5">
+      <c r="U69" s="44"/>
+      <c r="V69" s="45"/>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
       <c r="D70" s="45"/>
       <c r="E70" s="44"/>
-      <c r="F70" s="38"/>
+      <c r="F70" s="44"/>
       <c r="G70" s="44"/>
       <c r="H70" s="46"/>
       <c r="I70" s="44"/>
@@ -3475,12 +3703,13 @@
       <c r="O70" s="44"/>
       <c r="P70" s="46"/>
       <c r="Q70" s="45"/>
-      <c r="R70" s="44"/>
+      <c r="R70" s="45"/>
       <c r="S70" s="44"/>
       <c r="T70" s="44"/>
-      <c r="U70" s="45"/>
-    </row>
-    <row r="71" spans="1:21">
+      <c r="U70" s="44"/>
+      <c r="V70" s="45"/>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3498,12 +3727,13 @@
       <c r="O71" s="44"/>
       <c r="P71" s="46"/>
       <c r="Q71" s="45"/>
-      <c r="R71" s="44"/>
+      <c r="R71" s="45"/>
       <c r="S71" s="44"/>
       <c r="T71" s="44"/>
-      <c r="U71" s="45"/>
-    </row>
-    <row r="72" spans="1:21">
+      <c r="U71" s="44"/>
+      <c r="V71" s="45"/>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3521,12 +3751,13 @@
       <c r="O72" s="44"/>
       <c r="P72" s="46"/>
       <c r="Q72" s="45"/>
-      <c r="R72" s="44"/>
+      <c r="R72" s="45"/>
       <c r="S72" s="44"/>
       <c r="T72" s="44"/>
-      <c r="U72" s="45"/>
-    </row>
-    <row r="73" spans="1:21">
+      <c r="U72" s="44"/>
+      <c r="V72" s="45"/>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -3544,12 +3775,13 @@
       <c r="O73" s="44"/>
       <c r="P73" s="46"/>
       <c r="Q73" s="45"/>
-      <c r="R73" s="44"/>
+      <c r="R73" s="45"/>
       <c r="S73" s="44"/>
       <c r="T73" s="44"/>
-      <c r="U73" s="45"/>
-    </row>
-    <row r="74" spans="1:21">
+      <c r="U73" s="44"/>
+      <c r="V73" s="45"/>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -3567,12 +3799,13 @@
       <c r="O74" s="44"/>
       <c r="P74" s="46"/>
       <c r="Q74" s="45"/>
-      <c r="R74" s="44"/>
+      <c r="R74" s="45"/>
       <c r="S74" s="44"/>
       <c r="T74" s="44"/>
-      <c r="U74" s="45"/>
-    </row>
-    <row r="75" spans="1:21">
+      <c r="U74" s="44"/>
+      <c r="V74" s="45"/>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -3590,12 +3823,13 @@
       <c r="O75" s="44"/>
       <c r="P75" s="46"/>
       <c r="Q75" s="45"/>
-      <c r="R75" s="44"/>
+      <c r="R75" s="45"/>
       <c r="S75" s="44"/>
       <c r="T75" s="44"/>
-      <c r="U75" s="45"/>
-    </row>
-    <row r="76" spans="1:21">
+      <c r="U75" s="44"/>
+      <c r="V75" s="45"/>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -3613,12 +3847,13 @@
       <c r="O76" s="44"/>
       <c r="P76" s="46"/>
       <c r="Q76" s="45"/>
-      <c r="R76" s="44"/>
+      <c r="R76" s="45"/>
       <c r="S76" s="44"/>
       <c r="T76" s="44"/>
-      <c r="U76" s="45"/>
-    </row>
-    <row r="77" spans="1:21">
+      <c r="U76" s="44"/>
+      <c r="V76" s="45"/>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -3636,12 +3871,13 @@
       <c r="O77" s="44"/>
       <c r="P77" s="46"/>
       <c r="Q77" s="45"/>
-      <c r="R77" s="44"/>
+      <c r="R77" s="45"/>
       <c r="S77" s="44"/>
       <c r="T77" s="44"/>
-      <c r="U77" s="45"/>
-    </row>
-    <row r="78" spans="1:21">
+      <c r="U77" s="44"/>
+      <c r="V77" s="45"/>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -3659,12 +3895,13 @@
       <c r="O78" s="44"/>
       <c r="P78" s="46"/>
       <c r="Q78" s="45"/>
-      <c r="R78" s="44"/>
+      <c r="R78" s="45"/>
       <c r="S78" s="44"/>
       <c r="T78" s="44"/>
-      <c r="U78" s="45"/>
-    </row>
-    <row r="79" spans="1:21">
+      <c r="U78" s="44"/>
+      <c r="V78" s="45"/>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -3682,12 +3919,13 @@
       <c r="O79" s="44"/>
       <c r="P79" s="46"/>
       <c r="Q79" s="45"/>
-      <c r="R79" s="44"/>
+      <c r="R79" s="45"/>
       <c r="S79" s="44"/>
       <c r="T79" s="44"/>
-      <c r="U79" s="45"/>
-    </row>
-    <row r="80" spans="1:21">
+      <c r="U79" s="44"/>
+      <c r="V79" s="45"/>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -3705,12 +3943,13 @@
       <c r="O80" s="44"/>
       <c r="P80" s="46"/>
       <c r="Q80" s="45"/>
-      <c r="R80" s="44"/>
+      <c r="R80" s="45"/>
       <c r="S80" s="44"/>
       <c r="T80" s="44"/>
-      <c r="U80" s="45"/>
-    </row>
-    <row r="81" spans="1:21">
+      <c r="U80" s="44"/>
+      <c r="V80" s="45"/>
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -3728,12 +3967,13 @@
       <c r="O81" s="44"/>
       <c r="P81" s="46"/>
       <c r="Q81" s="45"/>
-      <c r="R81" s="44"/>
+      <c r="R81" s="45"/>
       <c r="S81" s="44"/>
       <c r="T81" s="44"/>
-      <c r="U81" s="45"/>
-    </row>
-    <row r="82" spans="1:21">
+      <c r="U81" s="44"/>
+      <c r="V81" s="45"/>
+    </row>
+    <row r="82" spans="1:22">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -3751,12 +3991,13 @@
       <c r="O82" s="44"/>
       <c r="P82" s="46"/>
       <c r="Q82" s="45"/>
-      <c r="R82" s="44"/>
+      <c r="R82" s="45"/>
       <c r="S82" s="44"/>
       <c r="T82" s="44"/>
-      <c r="U82" s="45"/>
-    </row>
-    <row r="83" spans="1:21">
+      <c r="U82" s="44"/>
+      <c r="V82" s="45"/>
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -3774,12 +4015,13 @@
       <c r="O83" s="44"/>
       <c r="P83" s="46"/>
       <c r="Q83" s="45"/>
-      <c r="R83" s="44"/>
+      <c r="R83" s="45"/>
       <c r="S83" s="44"/>
       <c r="T83" s="44"/>
-      <c r="U83" s="45"/>
-    </row>
-    <row r="84" spans="1:21">
+      <c r="U83" s="44"/>
+      <c r="V83" s="45"/>
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -3797,12 +4039,13 @@
       <c r="O84" s="44"/>
       <c r="P84" s="46"/>
       <c r="Q84" s="45"/>
-      <c r="R84" s="44"/>
+      <c r="R84" s="45"/>
       <c r="S84" s="44"/>
       <c r="T84" s="44"/>
-      <c r="U84" s="45"/>
-    </row>
-    <row r="85" spans="1:21">
+      <c r="U84" s="44"/>
+      <c r="V84" s="45"/>
+    </row>
+    <row r="85" spans="1:22">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -3820,12 +4063,13 @@
       <c r="O85" s="44"/>
       <c r="P85" s="46"/>
       <c r="Q85" s="45"/>
-      <c r="R85" s="44"/>
+      <c r="R85" s="45"/>
       <c r="S85" s="44"/>
       <c r="T85" s="44"/>
-      <c r="U85" s="45"/>
-    </row>
-    <row r="86" spans="1:21">
+      <c r="U85" s="44"/>
+      <c r="V85" s="45"/>
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -3843,12 +4087,13 @@
       <c r="O86" s="44"/>
       <c r="P86" s="46"/>
       <c r="Q86" s="45"/>
-      <c r="R86" s="44"/>
+      <c r="R86" s="45"/>
       <c r="S86" s="44"/>
       <c r="T86" s="44"/>
-      <c r="U86" s="45"/>
-    </row>
-    <row r="87" spans="1:21">
+      <c r="U86" s="44"/>
+      <c r="V86" s="45"/>
+    </row>
+    <row r="87" spans="1:22">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -3866,12 +4111,13 @@
       <c r="O87" s="44"/>
       <c r="P87" s="46"/>
       <c r="Q87" s="45"/>
-      <c r="R87" s="44"/>
+      <c r="R87" s="45"/>
       <c r="S87" s="44"/>
       <c r="T87" s="44"/>
-      <c r="U87" s="45"/>
-    </row>
-    <row r="88" spans="1:21">
+      <c r="U87" s="44"/>
+      <c r="V87" s="45"/>
+    </row>
+    <row r="88" spans="1:22">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -3889,12 +4135,13 @@
       <c r="O88" s="44"/>
       <c r="P88" s="46"/>
       <c r="Q88" s="45"/>
-      <c r="R88" s="44"/>
+      <c r="R88" s="45"/>
       <c r="S88" s="44"/>
       <c r="T88" s="44"/>
-      <c r="U88" s="45"/>
-    </row>
-    <row r="89" spans="1:21">
+      <c r="U88" s="44"/>
+      <c r="V88" s="45"/>
+    </row>
+    <row r="89" spans="1:22">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -3912,12 +4159,13 @@
       <c r="O89" s="44"/>
       <c r="P89" s="46"/>
       <c r="Q89" s="45"/>
-      <c r="R89" s="44"/>
+      <c r="R89" s="45"/>
       <c r="S89" s="44"/>
       <c r="T89" s="44"/>
-      <c r="U89" s="45"/>
-    </row>
-    <row r="90" spans="1:21">
+      <c r="U89" s="44"/>
+      <c r="V89" s="45"/>
+    </row>
+    <row r="90" spans="1:22">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -3935,12 +4183,13 @@
       <c r="O90" s="44"/>
       <c r="P90" s="46"/>
       <c r="Q90" s="45"/>
-      <c r="R90" s="44"/>
+      <c r="R90" s="45"/>
       <c r="S90" s="44"/>
       <c r="T90" s="44"/>
-      <c r="U90" s="45"/>
-    </row>
-    <row r="91" spans="1:21">
+      <c r="U90" s="44"/>
+      <c r="V90" s="45"/>
+    </row>
+    <row r="91" spans="1:22">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -3958,12 +4207,13 @@
       <c r="O91" s="44"/>
       <c r="P91" s="46"/>
       <c r="Q91" s="45"/>
-      <c r="R91" s="44"/>
+      <c r="R91" s="45"/>
       <c r="S91" s="44"/>
       <c r="T91" s="44"/>
-      <c r="U91" s="45"/>
-    </row>
-    <row r="92" spans="1:21">
+      <c r="U91" s="44"/>
+      <c r="V91" s="45"/>
+    </row>
+    <row r="92" spans="1:22">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -3981,12 +4231,13 @@
       <c r="O92" s="44"/>
       <c r="P92" s="46"/>
       <c r="Q92" s="45"/>
-      <c r="R92" s="44"/>
+      <c r="R92" s="45"/>
       <c r="S92" s="44"/>
       <c r="T92" s="44"/>
-      <c r="U92" s="45"/>
-    </row>
-    <row r="93" spans="1:21">
+      <c r="U92" s="44"/>
+      <c r="V92" s="45"/>
+    </row>
+    <row r="93" spans="1:22">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -4004,12 +4255,13 @@
       <c r="O93" s="44"/>
       <c r="P93" s="46"/>
       <c r="Q93" s="45"/>
-      <c r="R93" s="44"/>
+      <c r="R93" s="45"/>
       <c r="S93" s="44"/>
       <c r="T93" s="44"/>
-      <c r="U93" s="45"/>
-    </row>
-    <row r="94" spans="1:21">
+      <c r="U93" s="44"/>
+      <c r="V93" s="45"/>
+    </row>
+    <row r="94" spans="1:22">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -4027,12 +4279,13 @@
       <c r="O94" s="44"/>
       <c r="P94" s="46"/>
       <c r="Q94" s="45"/>
-      <c r="R94" s="44"/>
+      <c r="R94" s="45"/>
       <c r="S94" s="44"/>
       <c r="T94" s="44"/>
-      <c r="U94" s="45"/>
-    </row>
-    <row r="95" spans="1:21">
+      <c r="U94" s="44"/>
+      <c r="V94" s="45"/>
+    </row>
+    <row r="95" spans="1:22">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -4050,12 +4303,13 @@
       <c r="O95" s="44"/>
       <c r="P95" s="46"/>
       <c r="Q95" s="45"/>
-      <c r="R95" s="44"/>
+      <c r="R95" s="45"/>
       <c r="S95" s="44"/>
       <c r="T95" s="44"/>
-      <c r="U95" s="45"/>
-    </row>
-    <row r="96" spans="1:21">
+      <c r="U95" s="44"/>
+      <c r="V95" s="45"/>
+    </row>
+    <row r="96" spans="1:22">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -4073,12 +4327,13 @@
       <c r="O96" s="44"/>
       <c r="P96" s="46"/>
       <c r="Q96" s="45"/>
-      <c r="R96" s="44"/>
+      <c r="R96" s="45"/>
       <c r="S96" s="44"/>
       <c r="T96" s="44"/>
-      <c r="U96" s="45"/>
-    </row>
-    <row r="97" spans="1:21">
+      <c r="U96" s="44"/>
+      <c r="V96" s="45"/>
+    </row>
+    <row r="97" spans="1:22">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -4096,12 +4351,13 @@
       <c r="O97" s="44"/>
       <c r="P97" s="46"/>
       <c r="Q97" s="45"/>
-      <c r="R97" s="44"/>
+      <c r="R97" s="45"/>
       <c r="S97" s="44"/>
       <c r="T97" s="44"/>
-      <c r="U97" s="45"/>
-    </row>
-    <row r="98" spans="1:21">
+      <c r="U97" s="44"/>
+      <c r="V97" s="45"/>
+    </row>
+    <row r="98" spans="1:22">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -4119,12 +4375,13 @@
       <c r="O98" s="44"/>
       <c r="P98" s="46"/>
       <c r="Q98" s="45"/>
-      <c r="R98" s="44"/>
+      <c r="R98" s="45"/>
       <c r="S98" s="44"/>
       <c r="T98" s="44"/>
-      <c r="U98" s="45"/>
-    </row>
-    <row r="99" spans="1:21">
+      <c r="U98" s="44"/>
+      <c r="V98" s="45"/>
+    </row>
+    <row r="99" spans="1:22">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -4142,12 +4399,13 @@
       <c r="O99" s="44"/>
       <c r="P99" s="46"/>
       <c r="Q99" s="45"/>
-      <c r="R99" s="44"/>
+      <c r="R99" s="45"/>
       <c r="S99" s="44"/>
       <c r="T99" s="44"/>
-      <c r="U99" s="45"/>
-    </row>
-    <row r="100" spans="1:21">
+      <c r="U99" s="44"/>
+      <c r="V99" s="45"/>
+    </row>
+    <row r="100" spans="1:22">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -4165,12 +4423,13 @@
       <c r="O100" s="44"/>
       <c r="P100" s="46"/>
       <c r="Q100" s="45"/>
-      <c r="R100" s="44"/>
+      <c r="R100" s="45"/>
       <c r="S100" s="44"/>
       <c r="T100" s="44"/>
-      <c r="U100" s="45"/>
-    </row>
-    <row r="101" spans="1:21">
+      <c r="U100" s="44"/>
+      <c r="V100" s="45"/>
+    </row>
+    <row r="101" spans="1:22">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -4188,12 +4447,13 @@
       <c r="O101" s="44"/>
       <c r="P101" s="46"/>
       <c r="Q101" s="45"/>
-      <c r="R101" s="44"/>
+      <c r="R101" s="45"/>
       <c r="S101" s="44"/>
       <c r="T101" s="44"/>
-      <c r="U101" s="45"/>
-    </row>
-    <row r="102" spans="1:21">
+      <c r="U101" s="44"/>
+      <c r="V101" s="45"/>
+    </row>
+    <row r="102" spans="1:22">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -4211,12 +4471,13 @@
       <c r="O102" s="44"/>
       <c r="P102" s="46"/>
       <c r="Q102" s="45"/>
-      <c r="R102" s="44"/>
+      <c r="R102" s="45"/>
       <c r="S102" s="44"/>
       <c r="T102" s="44"/>
-      <c r="U102" s="45"/>
-    </row>
-    <row r="103" spans="1:21">
+      <c r="U102" s="44"/>
+      <c r="V102" s="45"/>
+    </row>
+    <row r="103" spans="1:22">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -4234,12 +4495,13 @@
       <c r="O103" s="44"/>
       <c r="P103" s="46"/>
       <c r="Q103" s="45"/>
-      <c r="R103" s="44"/>
+      <c r="R103" s="45"/>
       <c r="S103" s="44"/>
       <c r="T103" s="44"/>
-      <c r="U103" s="45"/>
-    </row>
-    <row r="104" spans="1:21">
+      <c r="U103" s="44"/>
+      <c r="V103" s="45"/>
+    </row>
+    <row r="104" spans="1:22">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -4257,12 +4519,13 @@
       <c r="O104" s="44"/>
       <c r="P104" s="46"/>
       <c r="Q104" s="45"/>
-      <c r="R104" s="44"/>
+      <c r="R104" s="45"/>
       <c r="S104" s="44"/>
       <c r="T104" s="44"/>
-      <c r="U104" s="45"/>
-    </row>
-    <row r="105" spans="1:21">
+      <c r="U104" s="44"/>
+      <c r="V104" s="45"/>
+    </row>
+    <row r="105" spans="1:22">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -4280,12 +4543,13 @@
       <c r="O105" s="44"/>
       <c r="P105" s="46"/>
       <c r="Q105" s="45"/>
-      <c r="R105" s="44"/>
+      <c r="R105" s="45"/>
       <c r="S105" s="44"/>
       <c r="T105" s="44"/>
-      <c r="U105" s="45"/>
-    </row>
-    <row r="106" spans="1:21">
+      <c r="U105" s="44"/>
+      <c r="V105" s="45"/>
+    </row>
+    <row r="106" spans="1:22">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -4303,12 +4567,13 @@
       <c r="O106" s="44"/>
       <c r="P106" s="46"/>
       <c r="Q106" s="45"/>
-      <c r="R106" s="44"/>
+      <c r="R106" s="45"/>
       <c r="S106" s="44"/>
       <c r="T106" s="44"/>
-      <c r="U106" s="45"/>
-    </row>
-    <row r="107" spans="1:21">
+      <c r="U106" s="44"/>
+      <c r="V106" s="45"/>
+    </row>
+    <row r="107" spans="1:22">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -4326,12 +4591,13 @@
       <c r="O107" s="44"/>
       <c r="P107" s="46"/>
       <c r="Q107" s="45"/>
-      <c r="R107" s="44"/>
+      <c r="R107" s="45"/>
       <c r="S107" s="44"/>
       <c r="T107" s="44"/>
-      <c r="U107" s="45"/>
-    </row>
-    <row r="108" spans="1:21">
+      <c r="U107" s="44"/>
+      <c r="V107" s="45"/>
+    </row>
+    <row r="108" spans="1:22">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -4349,12 +4615,13 @@
       <c r="O108" s="44"/>
       <c r="P108" s="46"/>
       <c r="Q108" s="45"/>
-      <c r="R108" s="44"/>
+      <c r="R108" s="45"/>
       <c r="S108" s="44"/>
       <c r="T108" s="44"/>
-      <c r="U108" s="45"/>
-    </row>
-    <row r="109" spans="1:21">
+      <c r="U108" s="44"/>
+      <c r="V108" s="45"/>
+    </row>
+    <row r="109" spans="1:22">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -4372,12 +4639,13 @@
       <c r="O109" s="44"/>
       <c r="P109" s="46"/>
       <c r="Q109" s="45"/>
-      <c r="R109" s="44"/>
+      <c r="R109" s="45"/>
       <c r="S109" s="44"/>
       <c r="T109" s="44"/>
-      <c r="U109" s="45"/>
-    </row>
-    <row r="110" spans="1:21">
+      <c r="U109" s="44"/>
+      <c r="V109" s="45"/>
+    </row>
+    <row r="110" spans="1:22">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -4395,12 +4663,13 @@
       <c r="O110" s="44"/>
       <c r="P110" s="46"/>
       <c r="Q110" s="45"/>
-      <c r="R110" s="44"/>
+      <c r="R110" s="45"/>
       <c r="S110" s="44"/>
       <c r="T110" s="44"/>
-      <c r="U110" s="45"/>
-    </row>
-    <row r="111" spans="1:21">
+      <c r="U110" s="44"/>
+      <c r="V110" s="45"/>
+    </row>
+    <row r="111" spans="1:22">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -4418,12 +4687,13 @@
       <c r="O111" s="44"/>
       <c r="P111" s="46"/>
       <c r="Q111" s="45"/>
-      <c r="R111" s="44"/>
+      <c r="R111" s="45"/>
       <c r="S111" s="44"/>
       <c r="T111" s="44"/>
-      <c r="U111" s="45"/>
-    </row>
-    <row r="112" spans="1:21">
+      <c r="U111" s="44"/>
+      <c r="V111" s="45"/>
+    </row>
+    <row r="112" spans="1:22">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -4441,12 +4711,13 @@
       <c r="O112" s="44"/>
       <c r="P112" s="46"/>
       <c r="Q112" s="45"/>
-      <c r="R112" s="44"/>
+      <c r="R112" s="45"/>
       <c r="S112" s="44"/>
       <c r="T112" s="44"/>
-      <c r="U112" s="45"/>
-    </row>
-    <row r="113" spans="1:21">
+      <c r="U112" s="44"/>
+      <c r="V112" s="45"/>
+    </row>
+    <row r="113" spans="1:22">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -4464,12 +4735,13 @@
       <c r="O113" s="44"/>
       <c r="P113" s="46"/>
       <c r="Q113" s="45"/>
-      <c r="R113" s="44"/>
+      <c r="R113" s="45"/>
       <c r="S113" s="44"/>
       <c r="T113" s="44"/>
-      <c r="U113" s="45"/>
-    </row>
-    <row r="114" spans="1:21">
+      <c r="U113" s="44"/>
+      <c r="V113" s="45"/>
+    </row>
+    <row r="114" spans="1:22">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -4487,12 +4759,13 @@
       <c r="O114" s="44"/>
       <c r="P114" s="46"/>
       <c r="Q114" s="45"/>
-      <c r="R114" s="44"/>
+      <c r="R114" s="45"/>
       <c r="S114" s="44"/>
       <c r="T114" s="44"/>
-      <c r="U114" s="45"/>
-    </row>
-    <row r="115" spans="1:21">
+      <c r="U114" s="44"/>
+      <c r="V114" s="45"/>
+    </row>
+    <row r="115" spans="1:22">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -4510,12 +4783,13 @@
       <c r="O115" s="44"/>
       <c r="P115" s="46"/>
       <c r="Q115" s="45"/>
-      <c r="R115" s="44"/>
+      <c r="R115" s="45"/>
       <c r="S115" s="44"/>
       <c r="T115" s="44"/>
-      <c r="U115" s="45"/>
-    </row>
-    <row r="116" spans="1:21">
+      <c r="U115" s="44"/>
+      <c r="V115" s="45"/>
+    </row>
+    <row r="116" spans="1:22">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -4533,12 +4807,13 @@
       <c r="O116" s="44"/>
       <c r="P116" s="46"/>
       <c r="Q116" s="45"/>
-      <c r="R116" s="44"/>
+      <c r="R116" s="45"/>
       <c r="S116" s="44"/>
       <c r="T116" s="44"/>
-      <c r="U116" s="45"/>
-    </row>
-    <row r="117" spans="1:21">
+      <c r="U116" s="44"/>
+      <c r="V116" s="45"/>
+    </row>
+    <row r="117" spans="1:22">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -4556,12 +4831,13 @@
       <c r="O117" s="44"/>
       <c r="P117" s="46"/>
       <c r="Q117" s="45"/>
-      <c r="R117" s="44"/>
+      <c r="R117" s="45"/>
       <c r="S117" s="44"/>
       <c r="T117" s="44"/>
-      <c r="U117" s="45"/>
-    </row>
-    <row r="118" spans="1:21">
+      <c r="U117" s="44"/>
+      <c r="V117" s="45"/>
+    </row>
+    <row r="118" spans="1:22">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -4579,12 +4855,13 @@
       <c r="O118" s="44"/>
       <c r="P118" s="46"/>
       <c r="Q118" s="45"/>
-      <c r="R118" s="44"/>
+      <c r="R118" s="45"/>
       <c r="S118" s="44"/>
       <c r="T118" s="44"/>
-      <c r="U118" s="45"/>
-    </row>
-    <row r="119" spans="1:21">
+      <c r="U118" s="44"/>
+      <c r="V118" s="45"/>
+    </row>
+    <row r="119" spans="1:22">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -4602,12 +4879,13 @@
       <c r="O119" s="44"/>
       <c r="P119" s="46"/>
       <c r="Q119" s="45"/>
-      <c r="R119" s="44"/>
+      <c r="R119" s="45"/>
       <c r="S119" s="44"/>
       <c r="T119" s="44"/>
-      <c r="U119" s="45"/>
-    </row>
-    <row r="120" spans="1:21">
+      <c r="U119" s="44"/>
+      <c r="V119" s="45"/>
+    </row>
+    <row r="120" spans="1:22">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -4625,12 +4903,13 @@
       <c r="O120" s="44"/>
       <c r="P120" s="46"/>
       <c r="Q120" s="45"/>
-      <c r="R120" s="44"/>
+      <c r="R120" s="45"/>
       <c r="S120" s="44"/>
       <c r="T120" s="44"/>
-      <c r="U120" s="45"/>
-    </row>
-    <row r="121" spans="1:21">
+      <c r="U120" s="44"/>
+      <c r="V120" s="45"/>
+    </row>
+    <row r="121" spans="1:22">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -4648,12 +4927,13 @@
       <c r="O121" s="44"/>
       <c r="P121" s="46"/>
       <c r="Q121" s="45"/>
-      <c r="R121" s="44"/>
+      <c r="R121" s="45"/>
       <c r="S121" s="44"/>
       <c r="T121" s="44"/>
-      <c r="U121" s="45"/>
-    </row>
-    <row r="122" spans="1:21">
+      <c r="U121" s="44"/>
+      <c r="V121" s="45"/>
+    </row>
+    <row r="122" spans="1:22">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -4671,12 +4951,13 @@
       <c r="O122" s="44"/>
       <c r="P122" s="46"/>
       <c r="Q122" s="45"/>
-      <c r="R122" s="44"/>
+      <c r="R122" s="45"/>
       <c r="S122" s="44"/>
       <c r="T122" s="44"/>
-      <c r="U122" s="45"/>
-    </row>
-    <row r="123" spans="1:21">
+      <c r="U122" s="44"/>
+      <c r="V122" s="45"/>
+    </row>
+    <row r="123" spans="1:22">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -4694,12 +4975,13 @@
       <c r="O123" s="44"/>
       <c r="P123" s="46"/>
       <c r="Q123" s="45"/>
-      <c r="R123" s="44"/>
+      <c r="R123" s="45"/>
       <c r="S123" s="44"/>
       <c r="T123" s="44"/>
-      <c r="U123" s="45"/>
-    </row>
-    <row r="124" spans="1:21">
+      <c r="U123" s="44"/>
+      <c r="V123" s="45"/>
+    </row>
+    <row r="124" spans="1:22">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -4717,12 +4999,13 @@
       <c r="O124" s="44"/>
       <c r="P124" s="46"/>
       <c r="Q124" s="45"/>
-      <c r="R124" s="44"/>
+      <c r="R124" s="45"/>
       <c r="S124" s="44"/>
       <c r="T124" s="44"/>
-      <c r="U124" s="45"/>
-    </row>
-    <row r="125" spans="1:21">
+      <c r="U124" s="44"/>
+      <c r="V124" s="45"/>
+    </row>
+    <row r="125" spans="1:22">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -4740,12 +5023,13 @@
       <c r="O125" s="44"/>
       <c r="P125" s="46"/>
       <c r="Q125" s="45"/>
-      <c r="R125" s="44"/>
+      <c r="R125" s="45"/>
       <c r="S125" s="44"/>
       <c r="T125" s="44"/>
-      <c r="U125" s="45"/>
-    </row>
-    <row r="126" spans="1:21">
+      <c r="U125" s="44"/>
+      <c r="V125" s="45"/>
+    </row>
+    <row r="126" spans="1:22">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -4763,12 +5047,13 @@
       <c r="O126" s="44"/>
       <c r="P126" s="46"/>
       <c r="Q126" s="45"/>
-      <c r="R126" s="44"/>
+      <c r="R126" s="45"/>
       <c r="S126" s="44"/>
       <c r="T126" s="44"/>
-      <c r="U126" s="45"/>
-    </row>
-    <row r="127" spans="1:21">
+      <c r="U126" s="44"/>
+      <c r="V126" s="45"/>
+    </row>
+    <row r="127" spans="1:22">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -4786,12 +5071,13 @@
       <c r="O127" s="44"/>
       <c r="P127" s="46"/>
       <c r="Q127" s="45"/>
-      <c r="R127" s="44"/>
+      <c r="R127" s="45"/>
       <c r="S127" s="44"/>
       <c r="T127" s="44"/>
-      <c r="U127" s="45"/>
-    </row>
-    <row r="128" spans="1:21">
+      <c r="U127" s="44"/>
+      <c r="V127" s="45"/>
+    </row>
+    <row r="128" spans="1:22">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -4809,12 +5095,13 @@
       <c r="O128" s="44"/>
       <c r="P128" s="46"/>
       <c r="Q128" s="45"/>
-      <c r="R128" s="44"/>
+      <c r="R128" s="45"/>
       <c r="S128" s="44"/>
       <c r="T128" s="44"/>
-      <c r="U128" s="45"/>
-    </row>
-    <row r="129" spans="1:21">
+      <c r="U128" s="44"/>
+      <c r="V128" s="45"/>
+    </row>
+    <row r="129" spans="1:22">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -4832,12 +5119,13 @@
       <c r="O129" s="44"/>
       <c r="P129" s="46"/>
       <c r="Q129" s="45"/>
-      <c r="R129" s="44"/>
+      <c r="R129" s="45"/>
       <c r="S129" s="44"/>
       <c r="T129" s="44"/>
-      <c r="U129" s="45"/>
-    </row>
-    <row r="130" spans="1:21">
+      <c r="U129" s="44"/>
+      <c r="V129" s="45"/>
+    </row>
+    <row r="130" spans="1:22">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -4855,12 +5143,9 @@
       <c r="O130" s="44"/>
       <c r="P130" s="46"/>
       <c r="Q130" s="45"/>
-      <c r="R130" s="44"/>
-      <c r="S130" s="44"/>
-      <c r="T130" s="44"/>
-      <c r="U130" s="45"/>
-    </row>
-    <row r="131" spans="1:21">
+      <c r="V130" s="45"/>
+    </row>
+    <row r="131" spans="1:22">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -4878,9 +5163,9 @@
       <c r="O131" s="44"/>
       <c r="P131" s="46"/>
       <c r="Q131" s="45"/>
-      <c r="U131" s="45"/>
-    </row>
-    <row r="132" spans="1:21">
+      <c r="V131" s="45"/>
+    </row>
+    <row r="132" spans="1:22">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -4898,9 +5183,9 @@
       <c r="O132" s="44"/>
       <c r="P132" s="46"/>
       <c r="Q132" s="45"/>
-      <c r="U132" s="45"/>
-    </row>
-    <row r="133" spans="1:21">
+      <c r="V132" s="45"/>
+    </row>
+    <row r="133" spans="1:22">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -4918,9 +5203,9 @@
       <c r="O133" s="44"/>
       <c r="P133" s="46"/>
       <c r="Q133" s="45"/>
-      <c r="U133" s="45"/>
-    </row>
-    <row r="134" spans="1:21">
+      <c r="V133" s="45"/>
+    </row>
+    <row r="134" spans="1:22">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -4938,9 +5223,9 @@
       <c r="O134" s="44"/>
       <c r="P134" s="46"/>
       <c r="Q134" s="45"/>
-      <c r="U134" s="45"/>
-    </row>
-    <row r="135" spans="1:21">
+      <c r="V134" s="45"/>
+    </row>
+    <row r="135" spans="1:22">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -4958,9 +5243,9 @@
       <c r="O135" s="44"/>
       <c r="P135" s="46"/>
       <c r="Q135" s="45"/>
-      <c r="U135" s="45"/>
-    </row>
-    <row r="136" spans="1:21">
+      <c r="V135" s="45"/>
+    </row>
+    <row r="136" spans="1:22">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -4978,9 +5263,9 @@
       <c r="O136" s="44"/>
       <c r="P136" s="46"/>
       <c r="Q136" s="45"/>
-      <c r="U136" s="45"/>
-    </row>
-    <row r="137" spans="1:21">
+      <c r="V136" s="45"/>
+    </row>
+    <row r="137" spans="1:22">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -4998,9 +5283,9 @@
       <c r="O137" s="44"/>
       <c r="P137" s="46"/>
       <c r="Q137" s="45"/>
-      <c r="U137" s="45"/>
-    </row>
-    <row r="138" spans="1:21">
+      <c r="V137" s="45"/>
+    </row>
+    <row r="138" spans="1:22">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -5018,9 +5303,9 @@
       <c r="O138" s="44"/>
       <c r="P138" s="46"/>
       <c r="Q138" s="45"/>
-      <c r="U138" s="45"/>
-    </row>
-    <row r="139" spans="1:21">
+      <c r="V138" s="45"/>
+    </row>
+    <row r="139" spans="1:22">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -5038,9 +5323,9 @@
       <c r="O139" s="44"/>
       <c r="P139" s="46"/>
       <c r="Q139" s="45"/>
-      <c r="U139" s="45"/>
-    </row>
-    <row r="140" spans="1:21">
+      <c r="V139" s="45"/>
+    </row>
+    <row r="140" spans="1:22">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -5058,9 +5343,9 @@
       <c r="O140" s="44"/>
       <c r="P140" s="46"/>
       <c r="Q140" s="45"/>
-      <c r="U140" s="45"/>
-    </row>
-    <row r="141" spans="1:21">
+      <c r="V140" s="45"/>
+    </row>
+    <row r="141" spans="1:22">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -5078,9 +5363,9 @@
       <c r="O141" s="44"/>
       <c r="P141" s="46"/>
       <c r="Q141" s="45"/>
-      <c r="U141" s="45"/>
-    </row>
-    <row r="142" spans="1:21">
+      <c r="V141" s="45"/>
+    </row>
+    <row r="142" spans="1:22">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -5098,9 +5383,9 @@
       <c r="O142" s="44"/>
       <c r="P142" s="46"/>
       <c r="Q142" s="45"/>
-      <c r="U142" s="45"/>
-    </row>
-    <row r="143" spans="1:21">
+      <c r="V142" s="45"/>
+    </row>
+    <row r="143" spans="1:22">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -5118,9 +5403,9 @@
       <c r="O143" s="44"/>
       <c r="P143" s="46"/>
       <c r="Q143" s="45"/>
-      <c r="U143" s="45"/>
-    </row>
-    <row r="144" spans="1:21">
+      <c r="V143" s="45"/>
+    </row>
+    <row r="144" spans="1:22">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -5138,9 +5423,9 @@
       <c r="O144" s="44"/>
       <c r="P144" s="46"/>
       <c r="Q144" s="45"/>
-      <c r="U144" s="45"/>
-    </row>
-    <row r="145" spans="1:21">
+      <c r="V144" s="45"/>
+    </row>
+    <row r="145" spans="1:22">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -5158,9 +5443,9 @@
       <c r="O145" s="44"/>
       <c r="P145" s="46"/>
       <c r="Q145" s="45"/>
-      <c r="U145" s="45"/>
-    </row>
-    <row r="146" spans="1:21">
+      <c r="V145" s="45"/>
+    </row>
+    <row r="146" spans="1:22">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -5178,9 +5463,9 @@
       <c r="O146" s="44"/>
       <c r="P146" s="46"/>
       <c r="Q146" s="45"/>
-      <c r="U146" s="45"/>
-    </row>
-    <row r="147" spans="1:21">
+      <c r="V146" s="45"/>
+    </row>
+    <row r="147" spans="1:22">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -5198,9 +5483,9 @@
       <c r="O147" s="44"/>
       <c r="P147" s="46"/>
       <c r="Q147" s="45"/>
-      <c r="U147" s="45"/>
-    </row>
-    <row r="148" spans="1:21">
+      <c r="V147" s="45"/>
+    </row>
+    <row r="148" spans="1:22">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -5218,9 +5503,9 @@
       <c r="O148" s="44"/>
       <c r="P148" s="46"/>
       <c r="Q148" s="45"/>
-      <c r="U148" s="45"/>
-    </row>
-    <row r="149" spans="1:21">
+      <c r="V148" s="45"/>
+    </row>
+    <row r="149" spans="1:22">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -5238,9 +5523,9 @@
       <c r="O149" s="44"/>
       <c r="P149" s="46"/>
       <c r="Q149" s="45"/>
-      <c r="U149" s="45"/>
-    </row>
-    <row r="150" spans="1:21">
+      <c r="V149" s="45"/>
+    </row>
+    <row r="150" spans="1:22">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -5258,9 +5543,9 @@
       <c r="O150" s="44"/>
       <c r="P150" s="46"/>
       <c r="Q150" s="45"/>
-      <c r="U150" s="45"/>
-    </row>
-    <row r="151" spans="1:21">
+      <c r="V150" s="45"/>
+    </row>
+    <row r="151" spans="1:22">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -5278,9 +5563,9 @@
       <c r="O151" s="44"/>
       <c r="P151" s="46"/>
       <c r="Q151" s="45"/>
-      <c r="U151" s="45"/>
-    </row>
-    <row r="152" spans="1:21">
+      <c r="V151" s="45"/>
+    </row>
+    <row r="152" spans="1:22">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -5298,9 +5583,9 @@
       <c r="O152" s="44"/>
       <c r="P152" s="46"/>
       <c r="Q152" s="45"/>
-      <c r="U152" s="45"/>
-    </row>
-    <row r="153" spans="1:21">
+      <c r="V152" s="45"/>
+    </row>
+    <row r="153" spans="1:22">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -5318,9 +5603,9 @@
       <c r="O153" s="44"/>
       <c r="P153" s="46"/>
       <c r="Q153" s="45"/>
-      <c r="U153" s="45"/>
-    </row>
-    <row r="154" spans="1:21">
+      <c r="V153" s="45"/>
+    </row>
+    <row r="154" spans="1:22">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -5338,9 +5623,9 @@
       <c r="O154" s="44"/>
       <c r="P154" s="46"/>
       <c r="Q154" s="45"/>
-      <c r="U154" s="45"/>
-    </row>
-    <row r="155" spans="1:21">
+      <c r="V154" s="45"/>
+    </row>
+    <row r="155" spans="1:22">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -5358,9 +5643,9 @@
       <c r="O155" s="44"/>
       <c r="P155" s="46"/>
       <c r="Q155" s="45"/>
-      <c r="U155" s="45"/>
-    </row>
-    <row r="156" spans="1:21">
+      <c r="V155" s="45"/>
+    </row>
+    <row r="156" spans="1:22">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -5378,9 +5663,9 @@
       <c r="O156" s="44"/>
       <c r="P156" s="46"/>
       <c r="Q156" s="45"/>
-      <c r="U156" s="45"/>
-    </row>
-    <row r="157" spans="1:21">
+      <c r="V156" s="45"/>
+    </row>
+    <row r="157" spans="1:22">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -5398,9 +5683,9 @@
       <c r="O157" s="44"/>
       <c r="P157" s="46"/>
       <c r="Q157" s="45"/>
-      <c r="U157" s="45"/>
-    </row>
-    <row r="158" spans="1:21">
+      <c r="V157" s="45"/>
+    </row>
+    <row r="158" spans="1:22">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -5418,9 +5703,9 @@
       <c r="O158" s="44"/>
       <c r="P158" s="46"/>
       <c r="Q158" s="45"/>
-      <c r="U158" s="45"/>
-    </row>
-    <row r="159" spans="1:21">
+      <c r="V158" s="45"/>
+    </row>
+    <row r="159" spans="1:22">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -5438,9 +5723,9 @@
       <c r="O159" s="44"/>
       <c r="P159" s="46"/>
       <c r="Q159" s="45"/>
-      <c r="U159" s="45"/>
-    </row>
-    <row r="160" spans="1:21">
+      <c r="V159" s="45"/>
+    </row>
+    <row r="160" spans="1:22">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -5458,9 +5743,9 @@
       <c r="O160" s="44"/>
       <c r="P160" s="46"/>
       <c r="Q160" s="45"/>
-      <c r="U160" s="45"/>
-    </row>
-    <row r="161" spans="1:21">
+      <c r="V160" s="45"/>
+    </row>
+    <row r="161" spans="1:22">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -5478,9 +5763,9 @@
       <c r="O161" s="44"/>
       <c r="P161" s="46"/>
       <c r="Q161" s="45"/>
-      <c r="U161" s="45"/>
-    </row>
-    <row r="162" spans="1:21">
+      <c r="V161" s="45"/>
+    </row>
+    <row r="162" spans="1:22">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -5498,9 +5783,9 @@
       <c r="O162" s="44"/>
       <c r="P162" s="46"/>
       <c r="Q162" s="45"/>
-      <c r="U162" s="45"/>
-    </row>
-    <row r="163" spans="1:21">
+      <c r="V162" s="45"/>
+    </row>
+    <row r="163" spans="1:22">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -5518,9 +5803,9 @@
       <c r="O163" s="44"/>
       <c r="P163" s="46"/>
       <c r="Q163" s="45"/>
-      <c r="U163" s="45"/>
-    </row>
-    <row r="164" spans="1:21">
+      <c r="V163" s="45"/>
+    </row>
+    <row r="164" spans="1:22">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -5538,32 +5823,12 @@
       <c r="O164" s="44"/>
       <c r="P164" s="46"/>
       <c r="Q164" s="45"/>
-      <c r="U164" s="45"/>
-    </row>
-    <row r="165" spans="1:21">
-      <c r="A165" s="44"/>
-      <c r="B165" s="44"/>
-      <c r="C165" s="44"/>
-      <c r="D165" s="45"/>
-      <c r="E165" s="44"/>
-      <c r="F165" s="44"/>
-      <c r="G165" s="44"/>
-      <c r="H165" s="46"/>
-      <c r="I165" s="44"/>
-      <c r="J165" s="46"/>
-      <c r="K165" s="48"/>
-      <c r="L165" s="44"/>
-      <c r="M165" s="44"/>
-      <c r="N165" s="44"/>
-      <c r="O165" s="44"/>
-      <c r="P165" s="46"/>
-      <c r="Q165" s="45"/>
-      <c r="U165" s="45"/>
+      <c r="V164" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T11:T1048576 T6:T7 T1:T2 G1:G1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U16:U1048576 U10:U14 U6:U7 U1:U2 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
@@ -5581,12 +5846,28 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R16:R1048576 Q1:Q1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="R5" r:id="rId1" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R6" r:id="rId2" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R7" r:id="rId3" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R15" r:id="rId4" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R8" r:id="rId5" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R10" r:id="rId6" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R12" r:id="rId7" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R14" r:id="rId8" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R9" r:id="rId9" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R11" r:id="rId10" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R13" r:id="rId11" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R2" r:id="rId12" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R3" r:id="rId13" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R4" r:id="rId14" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -5679,209 +5960,209 @@
       <c r="A2" s="62"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
       <c r="Q2" s="15"/>
-      <c r="R2" s="95"/>
+      <c r="R2" s="93"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="62"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
       <c r="Q3" s="15"/>
-      <c r="R3" s="95"/>
+      <c r="R3" s="93"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="62"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
       <c r="Q4" s="15"/>
-      <c r="R4" s="95"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" spans="1:18" ht="16.5">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
       <c r="Q5" s="15"/>
-      <c r="R5" s="95"/>
+      <c r="R5" s="93"/>
     </row>
     <row r="6" spans="1:18" ht="16.5">
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
       <c r="Q6" s="15"/>
-      <c r="R6" s="95"/>
+      <c r="R6" s="93"/>
     </row>
     <row r="7" spans="1:18" ht="16.5">
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
       <c r="Q7" s="15"/>
-      <c r="R7" s="95"/>
+      <c r="R7" s="93"/>
     </row>
     <row r="8" spans="1:18" ht="16.5">
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
       <c r="Q8" s="15"/>
-      <c r="R8" s="95"/>
+      <c r="R8" s="93"/>
     </row>
     <row r="9" spans="1:18" ht="16.5">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="95"/>
+      <c r="R9" s="93"/>
     </row>
     <row r="10" spans="1:18" ht="16.5">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="95"/>
+      <c r="R10" s="93"/>
     </row>
     <row r="11" spans="1:18" ht="16.5">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="95"/>
+      <c r="R11" s="93"/>
     </row>
     <row r="12" spans="1:18" ht="16.5">
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="94"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="96"/>
+      <c r="F12" s="94"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="95"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="93"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="9"/>
@@ -5890,245 +6171,245 @@
     <row r="13" spans="1:18" ht="16.5">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="94"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="96"/>
+      <c r="F13" s="94"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="95"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="93"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
     </row>
-    <row r="14" spans="1:18" s="97" customFormat="1" ht="16.5">
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
+    <row r="14" spans="1:18" s="95" customFormat="1" ht="16.5">
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
     </row>
     <row r="15" spans="1:18" ht="16.5">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
       <c r="Q15" s="15"/>
-      <c r="R15" s="95"/>
+      <c r="R15" s="93"/>
     </row>
     <row r="16" spans="1:18" ht="16.5">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
       <c r="Q16" s="15"/>
-      <c r="R16" s="95"/>
+      <c r="R16" s="93"/>
     </row>
     <row r="17" spans="2:18" ht="16.5">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
       <c r="Q17" s="15"/>
-      <c r="R17" s="95"/>
+      <c r="R17" s="93"/>
     </row>
     <row r="18" spans="2:18" ht="16.5">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
       <c r="Q18" s="15"/>
-      <c r="R18" s="95"/>
+      <c r="R18" s="93"/>
     </row>
     <row r="19" spans="2:18" ht="16.5">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
       <c r="Q19" s="15"/>
-      <c r="R19" s="95"/>
+      <c r="R19" s="93"/>
     </row>
     <row r="20" spans="2:18" ht="16.5">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
       <c r="Q20" s="15"/>
-      <c r="R20" s="95"/>
+      <c r="R20" s="93"/>
     </row>
     <row r="21" spans="2:18" ht="16.5">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
       <c r="Q21" s="15"/>
-      <c r="R21" s="95"/>
+      <c r="R21" s="93"/>
     </row>
     <row r="22" spans="2:18" ht="16.5">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
       <c r="Q22" s="15"/>
-      <c r="R22" s="95"/>
+      <c r="R22" s="93"/>
     </row>
     <row r="23" spans="2:18" ht="16.5">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="93"/>
       <c r="Q23" s="15"/>
-      <c r="R23" s="95"/>
+      <c r="R23" s="93"/>
     </row>
     <row r="24" spans="2:18" ht="16.5">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
       <c r="Q24" s="15"/>
-      <c r="R24" s="95"/>
+      <c r="R24" s="93"/>
     </row>
     <row r="25" spans="2:18" ht="16.5">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="94"/>
+      <c r="D25" s="92"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="96"/>
+      <c r="F25" s="94"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
       <c r="O25" s="11"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
@@ -6137,17 +6418,17 @@
     <row r="26" spans="2:18" ht="16.5">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
-      <c r="D26" s="94"/>
+      <c r="D26" s="92"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="96"/>
+      <c r="F26" s="94"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
       <c r="O26" s="11"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
@@ -6180,19 +6461,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -6230,8 +6511,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6243,8 +6524,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="104"/>
-      <c r="B4" s="105"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6256,8 +6537,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="103"/>
-      <c r="B5" s="103"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6269,8 +6550,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="105"/>
-      <c r="B6" s="105"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6282,8 +6563,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="105"/>
-      <c r="B7" s="105"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6295,8 +6576,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6308,8 +6589,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="105"/>
-      <c r="B9" s="105"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6321,8 +6602,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6383,36 +6664,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="107"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6697,36 +6978,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="107"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6769,11 +7050,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="81" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="80" customFormat="1" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="72"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
       <c r="G4" s="11"/>
@@ -6784,35 +7065,35 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="81" customFormat="1" ht="16.5">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="79"/>
-    </row>
-    <row r="6" spans="1:13" s="81" customFormat="1" ht="16.5">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="79"/>
+    <row r="5" spans="1:13" s="80" customFormat="1" ht="16.5">
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="78"/>
+    </row>
+    <row r="6" spans="1:13" s="80" customFormat="1" ht="16.5">
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="78"/>
     </row>
     <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
@@ -7011,36 +7292,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="107"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7083,11 +7364,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="81" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="80" customFormat="1" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="72"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
       <c r="G4" s="11"/>
@@ -7098,35 +7379,35 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="81" customFormat="1" ht="16.5">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="79"/>
-    </row>
-    <row r="6" spans="1:13" s="81" customFormat="1" ht="16.5">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="79"/>
+    <row r="5" spans="1:13" s="80" customFormat="1" ht="16.5">
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="78"/>
+    </row>
+    <row r="6" spans="1:13" s="80" customFormat="1" ht="16.5">
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="78"/>
     </row>
     <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
@@ -7327,36 +7608,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="107"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="105"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7399,11 +7680,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="81" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="80" customFormat="1" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="72"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
       <c r="G4" s="11"/>
@@ -7414,35 +7695,35 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="81" customFormat="1" ht="16.5">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="79"/>
-    </row>
-    <row r="6" spans="1:13" s="81" customFormat="1" ht="16.5">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="79"/>
+    <row r="5" spans="1:13" s="80" customFormat="1" ht="16.5">
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="78"/>
+    </row>
+    <row r="6" spans="1:13" s="80" customFormat="1" ht="16.5">
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="78"/>
     </row>
     <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>

--- a/VersionRecords/Version buyback/版本Bug和特性计划及评审表v5.2.XX_极光组.xlsx
+++ b/VersionRecords/Version buyback/版本Bug和特性计划及评审表v5.2.XX_极光组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="111">
   <si>
     <t>No</t>
   </si>
@@ -275,36 +275,6 @@
     <t>房东发起租约增加承租人性别、收租日</t>
   </si>
   <si>
-    <t>租约详情内增加性别、收租日</t>
-  </si>
-  <si>
-    <t>蘑菇宝申请列表资料待修改增加备注修改信息</t>
-  </si>
-  <si>
-    <t>拉卡拉贷款合同列表排序修改</t>
-  </si>
-  <si>
-    <t>蘑菇宝申请字段增加快照</t>
-  </si>
-  <si>
-    <t>贷款买回列表租客姓名、手机号所在列位置提前</t>
-  </si>
-  <si>
-    <t>聚有财还款列表优化显示列、筛选条件、排序</t>
-  </si>
-  <si>
-    <t>聚有财资质列表增加暂停和终止备注</t>
-  </si>
-  <si>
-    <t>房东端租金宝相关文案更名为蘑菇宝</t>
-  </si>
-  <si>
-    <t>蘑菇宝（聚有财）买回列表及放款列表增加公司实体字段</t>
-  </si>
-  <si>
-    <t>蘑菇宝（聚有财）新增蘑菇宝保证金退款管理列表</t>
-  </si>
-  <si>
     <t>茅寰寰</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -331,9 +301,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>DV-1933</t>
-  </si>
-  <si>
     <t>DV-1934</t>
   </si>
   <si>
@@ -362,6 +329,77 @@
   <si>
     <t>DV-2151</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>租约详情内增加性别、收租日</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝申请列表资料待修改增加备注修改信息</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉卡拉贷款合同列表排序修改</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款买回列表租客姓名、手机号所在列位置提前</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚有财还款列表优化显示列、筛选条件、排序</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚有财资质列表增加暂停和终止备注</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东端租金宝相关文案更名为蘑菇宝</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝（聚有财）买回列表及放款列表增加公司实体字段</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝（聚有财）新增蘑菇宝保证金退款管理列表</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝申请字段增加快照</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-1933</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇月付列表房源地址显示市、区优化</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2262</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉卡拉租客查询和显示快照数据姓名-手机号</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝还款列表过滤蘑菇宝编号为空的还款数据</t>
+  </si>
+  <si>
+    <t>蘑菇月付合同详情蘑菇宝文案优化</t>
+  </si>
+  <si>
+    <t>DV-2263</t>
+  </si>
+  <si>
+    <t>DV-2264</t>
+  </si>
+  <si>
+    <t>DV-2265</t>
   </si>
 </sst>
 </file>
@@ -901,7 +939,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1091,9 +1129,6 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1106,9 +1141,6 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1163,9 +1195,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="27" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1199,6 +1228,45 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="13" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1225,45 +1293,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="13" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1721,7 +1750,7 @@
   <dimension ref="A1:W164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1743,7 +1772,7 @@
     <col min="15" max="15" width="10" style="33" customWidth="1"/>
     <col min="16" max="16" width="12.5" style="33" customWidth="1"/>
     <col min="17" max="17" width="7.625" style="33" customWidth="1"/>
-    <col min="18" max="18" width="9.625" style="109" customWidth="1"/>
+    <col min="18" max="18" width="9.625" style="97" customWidth="1"/>
     <col min="19" max="19" width="12" style="34" customWidth="1"/>
     <col min="20" max="20" width="17" style="34" customWidth="1"/>
     <col min="21" max="21" width="14.125" style="34" customWidth="1"/>
@@ -1804,8 +1833,8 @@
       <c r="Q1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="110" t="s">
-        <v>88</v>
+      <c r="R1" s="98" t="s">
+        <v>78</v>
       </c>
       <c r="S1" s="35" t="s">
         <v>17</v>
@@ -1838,9 +1867,9 @@
       </c>
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
-      <c r="H2" s="91"/>
+      <c r="H2" s="88"/>
       <c r="I2" s="38"/>
-      <c r="J2" s="91"/>
+      <c r="J2" s="88"/>
       <c r="K2" s="38"/>
       <c r="L2" s="47" t="s">
         <v>71</v>
@@ -1850,19 +1879,19 @@
       </c>
       <c r="N2" s="38"/>
       <c r="O2" s="47"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="120" t="s">
-        <v>100</v>
-      </c>
-      <c r="S2" s="116"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" s="104"/>
       <c r="T2" s="44"/>
       <c r="U2" s="49"/>
       <c r="V2" s="50"/>
       <c r="W2" s="51"/>
     </row>
-    <row r="3" spans="1:23" s="85" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="69">
+    <row r="3" spans="1:23" s="83" customFormat="1" ht="27" customHeight="1">
+      <c r="A3" s="67">
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
@@ -1879,9 +1908,9 @@
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
-      <c r="H3" s="91"/>
+      <c r="H3" s="88"/>
       <c r="I3" s="38"/>
-      <c r="J3" s="91"/>
+      <c r="J3" s="88"/>
       <c r="K3" s="38"/>
       <c r="L3" s="47" t="s">
         <v>71</v>
@@ -1891,19 +1920,19 @@
       </c>
       <c r="N3" s="38"/>
       <c r="O3" s="47"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="120" t="s">
-        <v>101</v>
-      </c>
-      <c r="S3" s="117"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="84"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" s="105"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="82"/>
     </row>
     <row r="4" spans="1:23" ht="27" customHeight="1">
-      <c r="A4" s="69">
+      <c r="A4" s="67">
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
@@ -1924,20 +1953,20 @@
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
       <c r="K4" s="38"/>
-      <c r="L4" s="86" t="s">
-        <v>86</v>
+      <c r="L4" s="84" t="s">
+        <v>76</v>
       </c>
       <c r="M4" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="81"/>
+      <c r="N4" s="79"/>
       <c r="O4" s="44"/>
       <c r="P4" s="39"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="120" t="s">
-        <v>102</v>
-      </c>
-      <c r="S4" s="118"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="108" t="s">
+        <v>91</v>
+      </c>
+      <c r="S4" s="106"/>
       <c r="T4" s="44"/>
       <c r="U4" s="44"/>
       <c r="V4" s="45"/>
@@ -1970,20 +1999,20 @@
       <c r="M5" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="N5" s="81"/>
+      <c r="N5" s="79"/>
       <c r="O5" s="44"/>
       <c r="P5" s="39"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="120" t="s">
-        <v>87</v>
-      </c>
-      <c r="S5" s="118"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="108" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" s="106"/>
       <c r="T5" s="44"/>
       <c r="U5" s="44"/>
       <c r="V5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="31" customFormat="1" ht="27" customHeight="1">
-      <c r="A6" s="69">
+      <c r="A6" s="67">
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -1992,39 +2021,39 @@
       <c r="C6" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="87" t="s">
-        <v>76</v>
+      <c r="D6" s="37" t="s">
+        <v>92</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="71"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="69"/>
       <c r="L6" s="47" t="s">
         <v>71</v>
       </c>
       <c r="M6" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="71"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="113"/>
-      <c r="R6" s="120" t="s">
-        <v>89</v>
-      </c>
-      <c r="S6" s="118"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="108" t="s">
+        <v>79</v>
+      </c>
+      <c r="S6" s="106"/>
       <c r="T6" s="44"/>
       <c r="U6" s="49"/>
-      <c r="V6" s="89"/>
+      <c r="V6" s="86"/>
       <c r="W6" s="51"/>
     </row>
     <row r="7" spans="1:23" s="31" customFormat="1" ht="27" customHeight="1">
-      <c r="A7" s="69">
+      <c r="A7" s="67">
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
@@ -2033,35 +2062,35 @@
       <c r="C7" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="87" t="s">
-        <v>77</v>
+      <c r="D7" s="37" t="s">
+        <v>93</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="71"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="69"/>
       <c r="L7" s="47" t="s">
         <v>71</v>
       </c>
       <c r="M7" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="71"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="120" t="s">
-        <v>90</v>
-      </c>
-      <c r="S7" s="118"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="S7" s="106"/>
       <c r="T7" s="44"/>
       <c r="U7" s="49"/>
-      <c r="V7" s="90"/>
+      <c r="V7" s="87"/>
       <c r="W7" s="51"/>
     </row>
     <row r="8" spans="1:23" ht="27" customHeight="1">
@@ -2075,37 +2104,37 @@
         <v>68</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="76"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="74"/>
       <c r="L8" s="47" t="s">
         <v>71</v>
       </c>
       <c r="M8" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="70"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="120" t="s">
-        <v>93</v>
-      </c>
-      <c r="S8" s="118"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="108" t="s">
+        <v>102</v>
+      </c>
+      <c r="S8" s="106"/>
       <c r="T8" s="44"/>
       <c r="U8" s="44"/>
       <c r="V8" s="45"/>
     </row>
     <row r="9" spans="1:23" ht="27" customHeight="1">
-      <c r="A9" s="69">
+      <c r="A9" s="67">
         <v>8</v>
       </c>
       <c r="B9" s="36" t="s">
@@ -2115,31 +2144,31 @@
         <v>68</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="71"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="76"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="74"/>
       <c r="L9" s="47" t="s">
         <v>71</v>
       </c>
       <c r="M9" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="70"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="114"/>
-      <c r="R9" s="120" t="s">
-        <v>94</v>
-      </c>
-      <c r="S9" s="118"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="S9" s="106"/>
       <c r="T9" s="44"/>
       <c r="U9" s="44"/>
       <c r="V9" s="45"/>
@@ -2154,39 +2183,39 @@
       <c r="C10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="68" t="s">
-        <v>81</v>
+      <c r="D10" s="40" t="s">
+        <v>96</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="64"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="63"/>
       <c r="L10" s="47" t="s">
         <v>71</v>
       </c>
       <c r="M10" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="N10" s="64"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="120" t="s">
-        <v>95</v>
-      </c>
-      <c r="S10" s="119"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="S10" s="107"/>
       <c r="T10" s="53"/>
       <c r="U10" s="49"/>
-      <c r="V10" s="67"/>
+      <c r="V10" s="66"/>
       <c r="W10" s="51"/>
     </row>
     <row r="11" spans="1:23" s="31" customFormat="1" ht="27" customHeight="1">
-      <c r="A11" s="69">
+      <c r="A11" s="67">
         <v>10</v>
       </c>
       <c r="B11" s="36" t="s">
@@ -2195,35 +2224,35 @@
       <c r="C11" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="63" t="s">
-        <v>82</v>
+      <c r="D11" s="37" t="s">
+        <v>97</v>
       </c>
       <c r="E11" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="64"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="63"/>
       <c r="L11" s="47" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="M11" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="64"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="120" t="s">
-        <v>96</v>
-      </c>
-      <c r="S11" s="118"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="S11" s="106"/>
       <c r="T11" s="44"/>
       <c r="U11" s="49"/>
-      <c r="V11" s="67"/>
+      <c r="V11" s="66"/>
       <c r="W11" s="51"/>
     </row>
     <row r="12" spans="1:23" s="31" customFormat="1" ht="27" customHeight="1">
@@ -2236,39 +2265,39 @@
       <c r="C12" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="63" t="s">
-        <v>83</v>
+      <c r="D12" s="37" t="s">
+        <v>98</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="64"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="47" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="M12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="N12" s="64"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="120" t="s">
-        <v>97</v>
-      </c>
-      <c r="S12" s="118"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="S12" s="106"/>
       <c r="T12" s="44"/>
       <c r="U12" s="49"/>
-      <c r="V12" s="67"/>
+      <c r="V12" s="66"/>
       <c r="W12" s="51"/>
     </row>
     <row r="13" spans="1:23" s="31" customFormat="1" ht="27" customHeight="1">
-      <c r="A13" s="69">
+      <c r="A13" s="67">
         <v>12</v>
       </c>
       <c r="B13" s="36" t="s">
@@ -2277,35 +2306,35 @@
       <c r="C13" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="63" t="s">
-        <v>84</v>
+      <c r="D13" s="37" t="s">
+        <v>99</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="64"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="63"/>
       <c r="L13" s="47" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="M13" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="N13" s="64"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="115"/>
-      <c r="R13" s="120" t="s">
-        <v>98</v>
-      </c>
-      <c r="S13" s="118"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="S13" s="106"/>
       <c r="T13" s="44"/>
       <c r="U13" s="49"/>
-      <c r="V13" s="67"/>
+      <c r="V13" s="66"/>
       <c r="W13" s="51"/>
     </row>
     <row r="14" spans="1:23" s="31" customFormat="1" ht="27" customHeight="1">
@@ -2318,39 +2347,39 @@
       <c r="C14" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="63" t="s">
-        <v>85</v>
+      <c r="D14" s="37" t="s">
+        <v>100</v>
       </c>
       <c r="E14" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="64"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="63"/>
       <c r="L14" s="47" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="M14" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="N14" s="64"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="120" t="s">
-        <v>99</v>
-      </c>
-      <c r="S14" s="118"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="S14" s="106"/>
       <c r="T14" s="44"/>
       <c r="U14" s="49"/>
-      <c r="V14" s="67"/>
+      <c r="V14" s="66"/>
       <c r="W14" s="51"/>
     </row>
     <row r="15" spans="1:23" ht="27" customHeight="1">
-      <c r="A15" s="69">
+      <c r="A15" s="67">
         <v>14</v>
       </c>
       <c r="B15" s="36" t="s">
@@ -2360,126 +2389,190 @@
         <v>68</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E15" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="76"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="74"/>
       <c r="L15" s="47" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="M15" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="N15" s="70"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="114"/>
-      <c r="R15" s="120" t="s">
-        <v>92</v>
-      </c>
-      <c r="S15" s="118"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="108" t="s">
+        <v>82</v>
+      </c>
+      <c r="S15" s="106"/>
       <c r="T15" s="44"/>
       <c r="U15" s="44"/>
       <c r="V15" s="45"/>
     </row>
-    <row r="16" spans="1:23" ht="16.5">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="38"/>
+    <row r="16" spans="1:23" ht="21" customHeight="1">
+      <c r="A16" s="36">
+        <v>15</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>70</v>
+      </c>
       <c r="F16" s="42"/>
       <c r="G16" s="38"/>
       <c r="H16" s="39"/>
       <c r="I16" s="38"/>
       <c r="J16" s="39"/>
       <c r="K16" s="38"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="38"/>
+      <c r="L16" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="38" t="s">
+        <v>69</v>
+      </c>
       <c r="N16" s="47"/>
       <c r="O16" s="47"/>
       <c r="P16" s="39"/>
       <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
+      <c r="R16" s="108" t="s">
+        <v>104</v>
+      </c>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
       <c r="U16" s="44"/>
       <c r="V16" s="52"/>
     </row>
-    <row r="17" spans="1:22" ht="16.5">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="38"/>
+    <row r="17" spans="1:22" ht="21" customHeight="1">
+      <c r="A17" s="67">
+        <v>16</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>70</v>
+      </c>
       <c r="F17" s="42"/>
       <c r="G17" s="38"/>
       <c r="H17" s="39"/>
       <c r="I17" s="38"/>
       <c r="J17" s="39"/>
       <c r="K17" s="38"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="38"/>
+      <c r="L17" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="38" t="s">
+        <v>69</v>
+      </c>
       <c r="N17" s="47"/>
       <c r="O17" s="47"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
+      <c r="R17" s="108" t="s">
+        <v>108</v>
+      </c>
       <c r="S17" s="44"/>
       <c r="T17" s="44"/>
       <c r="U17" s="44"/>
       <c r="V17" s="52"/>
     </row>
-    <row r="18" spans="1:22" ht="16.5">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="38"/>
+    <row r="18" spans="1:22" ht="21" customHeight="1">
+      <c r="A18" s="36">
+        <v>17</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>70</v>
+      </c>
       <c r="F18" s="42"/>
       <c r="G18" s="38"/>
       <c r="H18" s="39"/>
       <c r="I18" s="38"/>
       <c r="J18" s="39"/>
       <c r="K18" s="38"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="38"/>
+      <c r="L18" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="38" t="s">
+        <v>69</v>
+      </c>
       <c r="N18" s="47"/>
       <c r="O18" s="47"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="47"/>
-      <c r="R18" s="108"/>
+      <c r="R18" s="108" t="s">
+        <v>109</v>
+      </c>
       <c r="S18" s="54"/>
       <c r="T18" s="54"/>
       <c r="U18" s="54"/>
       <c r="V18" s="55"/>
     </row>
-    <row r="19" spans="1:22" ht="16.5">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="38"/>
+    <row r="19" spans="1:22" ht="21" customHeight="1">
+      <c r="A19" s="67">
+        <v>18</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>70</v>
+      </c>
       <c r="F19" s="42"/>
       <c r="G19" s="38"/>
       <c r="H19" s="39"/>
       <c r="I19" s="38"/>
       <c r="J19" s="39"/>
       <c r="K19" s="38"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="38"/>
+      <c r="L19" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="M19" s="38" t="s">
+        <v>69</v>
+      </c>
       <c r="N19" s="47"/>
       <c r="O19" s="47"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
+      <c r="R19" s="108" t="s">
+        <v>110</v>
+      </c>
       <c r="S19" s="56"/>
       <c r="T19" s="56"/>
       <c r="U19" s="56"/>
@@ -2575,7 +2668,7 @@
       <c r="O23" s="47"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="47"/>
-      <c r="R23" s="108"/>
+      <c r="R23" s="96"/>
       <c r="S23" s="53"/>
       <c r="T23" s="53"/>
       <c r="U23" s="53"/>
@@ -2959,7 +3052,7 @@
       <c r="O39" s="47"/>
       <c r="P39" s="39"/>
       <c r="Q39" s="47"/>
-      <c r="R39" s="108"/>
+      <c r="R39" s="96"/>
       <c r="S39" s="53"/>
       <c r="T39" s="53"/>
       <c r="U39" s="53"/>
@@ -2983,7 +3076,7 @@
       <c r="O40" s="47"/>
       <c r="P40" s="39"/>
       <c r="Q40" s="47"/>
-      <c r="R40" s="108"/>
+      <c r="R40" s="96"/>
       <c r="S40" s="53"/>
       <c r="T40" s="53"/>
       <c r="U40" s="53"/>
@@ -5846,7 +5939,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R16:R1048576 Q1:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576 R20:R1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5865,9 +5958,11 @@
     <hyperlink ref="R2" r:id="rId12" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
     <hyperlink ref="R3" r:id="rId13" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
     <hyperlink ref="R4" r:id="rId14" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R16" r:id="rId15" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R17:R19" r:id="rId16" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -5960,209 +6055,209 @@
       <c r="A2" s="62"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
       <c r="Q2" s="15"/>
-      <c r="R2" s="93"/>
+      <c r="R2" s="90"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="62"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
       <c r="Q3" s="15"/>
-      <c r="R3" s="93"/>
+      <c r="R3" s="90"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="62"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
       <c r="Q4" s="15"/>
-      <c r="R4" s="93"/>
+      <c r="R4" s="90"/>
     </row>
     <row r="5" spans="1:18" ht="16.5">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
       <c r="Q5" s="15"/>
-      <c r="R5" s="93"/>
+      <c r="R5" s="90"/>
     </row>
     <row r="6" spans="1:18" ht="16.5">
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
       <c r="Q6" s="15"/>
-      <c r="R6" s="93"/>
+      <c r="R6" s="90"/>
     </row>
     <row r="7" spans="1:18" ht="16.5">
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
       <c r="Q7" s="15"/>
-      <c r="R7" s="93"/>
+      <c r="R7" s="90"/>
     </row>
     <row r="8" spans="1:18" ht="16.5">
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
       <c r="Q8" s="15"/>
-      <c r="R8" s="93"/>
+      <c r="R8" s="90"/>
     </row>
     <row r="9" spans="1:18" ht="16.5">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="93"/>
+      <c r="R9" s="90"/>
     </row>
     <row r="10" spans="1:18" ht="16.5">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="93"/>
+      <c r="R10" s="90"/>
     </row>
     <row r="11" spans="1:18" ht="16.5">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="93"/>
+      <c r="R11" s="90"/>
     </row>
     <row r="12" spans="1:18" ht="16.5">
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="92"/>
+      <c r="D12" s="89"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="94"/>
+      <c r="F12" s="91"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="93"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="90"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="9"/>
@@ -6171,245 +6266,245 @@
     <row r="13" spans="1:18" ht="16.5">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="92"/>
+      <c r="D13" s="89"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="94"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="93"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="90"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
     </row>
-    <row r="14" spans="1:18" s="95" customFormat="1" ht="16.5">
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
+    <row r="14" spans="1:18" s="92" customFormat="1" ht="16.5">
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
     </row>
     <row r="15" spans="1:18" ht="16.5">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
       <c r="Q15" s="15"/>
-      <c r="R15" s="93"/>
+      <c r="R15" s="90"/>
     </row>
     <row r="16" spans="1:18" ht="16.5">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="90"/>
       <c r="Q16" s="15"/>
-      <c r="R16" s="93"/>
+      <c r="R16" s="90"/>
     </row>
     <row r="17" spans="2:18" ht="16.5">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
       <c r="Q17" s="15"/>
-      <c r="R17" s="93"/>
+      <c r="R17" s="90"/>
     </row>
     <row r="18" spans="2:18" ht="16.5">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
       <c r="Q18" s="15"/>
-      <c r="R18" s="93"/>
+      <c r="R18" s="90"/>
     </row>
     <row r="19" spans="2:18" ht="16.5">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
       <c r="Q19" s="15"/>
-      <c r="R19" s="93"/>
+      <c r="R19" s="90"/>
     </row>
     <row r="20" spans="2:18" ht="16.5">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
       <c r="Q20" s="15"/>
-      <c r="R20" s="93"/>
+      <c r="R20" s="90"/>
     </row>
     <row r="21" spans="2:18" ht="16.5">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
       <c r="Q21" s="15"/>
-      <c r="R21" s="93"/>
+      <c r="R21" s="90"/>
     </row>
     <row r="22" spans="2:18" ht="16.5">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
       <c r="Q22" s="15"/>
-      <c r="R22" s="93"/>
+      <c r="R22" s="90"/>
     </row>
     <row r="23" spans="2:18" ht="16.5">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
       <c r="Q23" s="15"/>
-      <c r="R23" s="93"/>
+      <c r="R23" s="90"/>
     </row>
     <row r="24" spans="2:18" ht="16.5">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
       <c r="Q24" s="15"/>
-      <c r="R24" s="93"/>
+      <c r="R24" s="90"/>
     </row>
     <row r="25" spans="2:18" ht="16.5">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="92"/>
+      <c r="D25" s="89"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="94"/>
+      <c r="F25" s="91"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
       <c r="O25" s="11"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
@@ -6418,17 +6513,17 @@
     <row r="26" spans="2:18" ht="16.5">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
-      <c r="D26" s="92"/>
+      <c r="D26" s="89"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="94"/>
+      <c r="F26" s="91"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
       <c r="O26" s="11"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
@@ -6461,19 +6556,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -6511,8 +6606,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6524,8 +6619,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6537,8 +6632,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="101"/>
-      <c r="B5" s="101"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6550,8 +6645,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="103"/>
-      <c r="B6" s="103"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="113"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6563,8 +6658,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="103"/>
-      <c r="B7" s="103"/>
+      <c r="A7" s="113"/>
+      <c r="B7" s="113"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6576,8 +6671,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="103"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6589,8 +6684,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="103"/>
-      <c r="B9" s="103"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6602,8 +6697,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="102"/>
-      <c r="B10" s="102"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6664,36 +6759,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="115"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="117"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6978,36 +7073,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="115"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="117"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7050,11 +7145,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="80" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="78" customFormat="1" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="71"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
       <c r="G4" s="11"/>
@@ -7065,35 +7160,35 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="80" customFormat="1" ht="16.5">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="78"/>
-    </row>
-    <row r="6" spans="1:13" s="80" customFormat="1" ht="16.5">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="78"/>
+    <row r="5" spans="1:13" s="78" customFormat="1" ht="16.5">
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="76"/>
+    </row>
+    <row r="6" spans="1:13" s="78" customFormat="1" ht="16.5">
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="76"/>
     </row>
     <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
@@ -7292,36 +7387,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="115"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="117"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7364,11 +7459,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="80" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="78" customFormat="1" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="71"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
       <c r="G4" s="11"/>
@@ -7379,35 +7474,35 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="80" customFormat="1" ht="16.5">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="78"/>
-    </row>
-    <row r="6" spans="1:13" s="80" customFormat="1" ht="16.5">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="78"/>
+    <row r="5" spans="1:13" s="78" customFormat="1" ht="16.5">
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="76"/>
+    </row>
+    <row r="6" spans="1:13" s="78" customFormat="1" ht="16.5">
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="76"/>
     </row>
     <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
@@ -7608,36 +7703,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="115"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="117"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7680,11 +7775,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="80" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="78" customFormat="1" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="71"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
       <c r="G4" s="11"/>
@@ -7695,35 +7790,35 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="80" customFormat="1" ht="16.5">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="78"/>
-    </row>
-    <row r="6" spans="1:13" s="80" customFormat="1" ht="16.5">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="78"/>
+    <row r="5" spans="1:13" s="78" customFormat="1" ht="16.5">
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="76"/>
+    </row>
+    <row r="6" spans="1:13" s="78" customFormat="1" ht="16.5">
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="76"/>
     </row>
     <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>

--- a/VersionRecords/Version buyback/版本Bug和特性计划及评审表v5.2.XX_极光组.xlsx
+++ b/VersionRecords/Version buyback/版本Bug和特性计划及评审表v5.2.XX_极光组.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="813"/>
   </bookViews>
   <sheets>
-    <sheet name="01 版本5.2.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="01 版本5.2.1.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="02 定时器" sheetId="10" r:id="rId2"/>
     <sheet name="03 上线执行顺序" sheetId="8" r:id="rId3"/>
     <sheet name="041 配置文件（测试环境）" sheetId="9" r:id="rId4"/>
@@ -17,7 +17,7 @@
     <sheet name="05 数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.1 新特性|Fix Bug'!$A$1:$V$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.1.1 新特性|Fix Bug'!$A$1:$V$13</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="115">
   <si>
     <t>No</t>
   </si>
@@ -264,10 +264,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>蘑菇宝资方结算线上化（资方要升级）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>蘑菇宝审核租约流程简化</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -323,10 +319,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>DV-1831</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>DV-2151</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -355,58 +347,95 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>蘑菇宝（聚有财）买回列表及放款列表增加公司实体字段</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝（聚有财）新增蘑菇宝保证金退款管理列表</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-1933</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇月付列表房源地址显示市、区优化</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2262</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉卡拉租客查询和显示快照数据姓名-手机号</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇月付合同详情蘑菇宝文案优化</t>
+  </si>
+  <si>
+    <t>DV-2263</t>
+  </si>
+  <si>
+    <t>DV-2264</t>
+  </si>
+  <si>
+    <t>DV-2265</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartnerPc</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartnerPc、PartnerApp、RenterApp</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartnerPc、PartnerApp</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <t>房东端租金宝相关文案更名为蘑菇宝</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>蘑菇宝（聚有财）买回列表及放款列表增加公司实体字段</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇宝（聚有财）新增蘑菇宝保证金退款管理列表</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>蘑菇宝申请字段增加快照</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>DV-1933</t>
+    <t>RenterApp</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>蘑菇月付列表房源地址显示市、区优化</t>
+    <t>蘑菇宝还款列表过滤蘑菇宝编号为空的还款数据</t>
     <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>DV-2262</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉卡拉租客查询和显示快照数据姓名-手机号</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇宝还款列表过滤蘑菇宝编号为空的还款数据</t>
-  </si>
-  <si>
-    <t>蘑菇月付合同详情蘑菇宝文案优化</t>
-  </si>
-  <si>
-    <t>DV-2263</t>
-  </si>
-  <si>
-    <t>DV-2264</t>
-  </si>
-  <si>
-    <t>DV-2265</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -627,13 +656,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
@@ -721,7 +743,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -901,6 +923,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -934,12 +969,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1150,9 +1185,6 @@
     <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="10" fillId="6" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1180,18 +1212,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1204,7 +1224,7 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1216,7 +1236,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1255,16 +1275,13 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="13" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="13" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1292,6 +1309,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1747,10 +1776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W164"/>
+  <dimension ref="A1:W163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1772,7 +1801,7 @@
     <col min="15" max="15" width="10" style="33" customWidth="1"/>
     <col min="16" max="16" width="12.5" style="33" customWidth="1"/>
     <col min="17" max="17" width="7.625" style="33" customWidth="1"/>
-    <col min="18" max="18" width="9.625" style="97" customWidth="1"/>
+    <col min="18" max="18" width="9.625" style="92" customWidth="1"/>
     <col min="19" max="19" width="12" style="34" customWidth="1"/>
     <col min="20" max="20" width="17" style="34" customWidth="1"/>
     <col min="21" max="21" width="14.125" style="34" customWidth="1"/>
@@ -1803,7 +1832,7 @@
       <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="114" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="35" t="s">
@@ -1833,8 +1862,8 @@
       <c r="Q1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="98" t="s">
-        <v>78</v>
+      <c r="R1" s="93" t="s">
+        <v>77</v>
       </c>
       <c r="S1" s="35" t="s">
         <v>17</v>
@@ -1865,11 +1894,21 @@
       <c r="E2" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="88"/>
+      <c r="F2" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="115">
+        <v>42375</v>
+      </c>
+      <c r="I2" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="115">
+        <v>42375</v>
+      </c>
       <c r="K2" s="38"/>
       <c r="L2" s="47" t="s">
         <v>71</v>
@@ -1879,18 +1918,18 @@
       </c>
       <c r="N2" s="38"/>
       <c r="O2" s="47"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S2" s="104"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="102" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="99"/>
       <c r="T2" s="44"/>
       <c r="U2" s="49"/>
       <c r="V2" s="50"/>
       <c r="W2" s="51"/>
     </row>
-    <row r="3" spans="1:23" s="83" customFormat="1" ht="27" customHeight="1">
+    <row r="3" spans="1:23" ht="27" customHeight="1">
       <c r="A3" s="67">
         <v>2</v>
       </c>
@@ -1906,33 +1945,42 @@
       <c r="E3" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="88"/>
+      <c r="F3" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="115">
+        <v>42375</v>
+      </c>
+      <c r="I3" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="115">
+        <v>42375</v>
+      </c>
       <c r="K3" s="38"/>
-      <c r="L3" s="47" t="s">
-        <v>71</v>
+      <c r="L3" s="79" t="s">
+        <v>75</v>
       </c>
       <c r="M3" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="108" t="s">
-        <v>90</v>
-      </c>
-      <c r="S3" s="105"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="82"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="S3" s="100"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="45"/>
     </row>
     <row r="4" spans="1:23" ht="27" customHeight="1">
-      <c r="A4" s="67">
+      <c r="A4" s="36">
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
@@ -1947,32 +1995,42 @@
       <c r="E4" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="F4" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="115">
+        <v>42375</v>
+      </c>
+      <c r="I4" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="115">
+        <v>42375</v>
+      </c>
       <c r="K4" s="38"/>
-      <c r="L4" s="84" t="s">
-        <v>76</v>
+      <c r="L4" s="47" t="s">
+        <v>71</v>
       </c>
       <c r="M4" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="79"/>
+      <c r="N4" s="78"/>
       <c r="O4" s="44"/>
       <c r="P4" s="39"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="108" t="s">
-        <v>91</v>
-      </c>
-      <c r="S4" s="106"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="100"/>
       <c r="T4" s="44"/>
       <c r="U4" s="44"/>
       <c r="V4" s="45"/>
     </row>
-    <row r="5" spans="1:23" ht="27" customHeight="1">
-      <c r="A5" s="36">
+    <row r="5" spans="1:23" s="31" customFormat="1" ht="27" customHeight="1">
+      <c r="A5" s="67">
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
@@ -1981,38 +2039,49 @@
       <c r="C5" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>75</v>
+      <c r="D5" s="37" t="s">
+        <v>90</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="38"/>
+      <c r="F5" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="115">
+        <v>42375</v>
+      </c>
+      <c r="I5" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="115">
+        <v>42375</v>
+      </c>
+      <c r="K5" s="69"/>
       <c r="L5" s="47" t="s">
         <v>71</v>
       </c>
       <c r="M5" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="N5" s="79"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="108" t="s">
-        <v>77</v>
-      </c>
-      <c r="S5" s="106"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5" s="100"/>
       <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="45"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:23" s="31" customFormat="1" ht="27" customHeight="1">
-      <c r="A6" s="67">
+      <c r="A6" s="36">
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -2022,16 +2091,26 @@
         <v>68</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="85"/>
+      <c r="F6" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="115">
+        <v>42375</v>
+      </c>
+      <c r="I6" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" s="115">
+        <v>42375</v>
+      </c>
       <c r="K6" s="69"/>
       <c r="L6" s="47" t="s">
         <v>71</v>
@@ -2040,19 +2119,19 @@
         <v>69</v>
       </c>
       <c r="N6" s="69"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="108" t="s">
+      <c r="O6" s="71"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="S6" s="106"/>
+      <c r="S6" s="100"/>
       <c r="T6" s="44"/>
       <c r="U6" s="49"/>
-      <c r="V6" s="86"/>
+      <c r="V6" s="82"/>
       <c r="W6" s="51"/>
     </row>
-    <row r="7" spans="1:23" s="31" customFormat="1" ht="27" customHeight="1">
+    <row r="7" spans="1:23" ht="27" customHeight="1">
       <c r="A7" s="67">
         <v>6</v>
       </c>
@@ -2062,36 +2141,45 @@
       <c r="C7" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="37" t="s">
-        <v>93</v>
+      <c r="D7" s="43" t="s">
+        <v>92</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="69"/>
+      <c r="F7" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="115">
+        <v>42375</v>
+      </c>
+      <c r="I7" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="115">
+        <v>42375</v>
+      </c>
+      <c r="K7" s="73"/>
       <c r="L7" s="47" t="s">
         <v>71</v>
       </c>
       <c r="M7" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="69"/>
+      <c r="N7" s="68"/>
       <c r="O7" s="72"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="S7" s="106"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="102" t="s">
+        <v>98</v>
+      </c>
+      <c r="S7" s="100"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="51"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="45"/>
     </row>
     <row r="8" spans="1:23" ht="27" customHeight="1">
       <c r="A8" s="36">
@@ -2104,17 +2192,27 @@
         <v>68</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="74"/>
+      <c r="F8" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="115">
+        <v>42375</v>
+      </c>
+      <c r="I8" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="115">
+        <v>42375</v>
+      </c>
+      <c r="K8" s="73"/>
       <c r="L8" s="47" t="s">
         <v>71</v>
       </c>
@@ -2122,18 +2220,18 @@
         <v>69</v>
       </c>
       <c r="N8" s="68"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="108" t="s">
-        <v>102</v>
-      </c>
-      <c r="S8" s="106"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="102" t="s">
+        <v>82</v>
+      </c>
+      <c r="S8" s="100"/>
       <c r="T8" s="44"/>
       <c r="U8" s="44"/>
       <c r="V8" s="45"/>
     </row>
-    <row r="9" spans="1:23" ht="27" customHeight="1">
+    <row r="9" spans="1:23" s="31" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="67">
         <v>8</v>
       </c>
@@ -2143,35 +2241,46 @@
       <c r="C9" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="43" t="s">
-        <v>95</v>
+      <c r="D9" s="40" t="s">
+        <v>94</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="74"/>
+      <c r="F9" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="115">
+        <v>42375</v>
+      </c>
+      <c r="I9" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="115">
+        <v>42375</v>
+      </c>
+      <c r="K9" s="63"/>
       <c r="L9" s="47" t="s">
         <v>71</v>
       </c>
       <c r="M9" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="68"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="108" t="s">
+      <c r="N9" s="63"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="S9" s="106"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="45"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="51"/>
     </row>
     <row r="10" spans="1:23" s="31" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="36">
@@ -2183,20 +2292,30 @@
       <c r="C10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="40" t="s">
-        <v>96</v>
+      <c r="D10" s="37" t="s">
+        <v>95</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
+      <c r="F10" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="115">
+        <v>42375</v>
+      </c>
+      <c r="I10" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="115">
+        <v>42375</v>
+      </c>
       <c r="K10" s="63"/>
       <c r="L10" s="47" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="M10" s="38" t="s">
         <v>69</v>
@@ -2204,12 +2323,12 @@
       <c r="N10" s="63"/>
       <c r="O10" s="65"/>
       <c r="P10" s="64"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="108" t="s">
+      <c r="Q10" s="98"/>
+      <c r="R10" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="S10" s="107"/>
-      <c r="T10" s="53"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="44"/>
       <c r="U10" s="49"/>
       <c r="V10" s="66"/>
       <c r="W10" s="51"/>
@@ -2225,19 +2344,29 @@
         <v>68</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E11" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
+      <c r="F11" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="115">
+        <v>42375</v>
+      </c>
+      <c r="I11" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="115">
+        <v>42375</v>
+      </c>
       <c r="K11" s="63"/>
       <c r="L11" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M11" s="38" t="s">
         <v>69</v>
@@ -2245,11 +2374,11 @@
       <c r="N11" s="63"/>
       <c r="O11" s="65"/>
       <c r="P11" s="64"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="108" t="s">
+      <c r="Q11" s="98"/>
+      <c r="R11" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="S11" s="106"/>
+      <c r="S11" s="100"/>
       <c r="T11" s="44"/>
       <c r="U11" s="49"/>
       <c r="V11" s="66"/>
@@ -2266,19 +2395,29 @@
         <v>68</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="F12" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="115">
+        <v>42375</v>
+      </c>
+      <c r="I12" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="115">
+        <v>42375</v>
+      </c>
       <c r="K12" s="63"/>
       <c r="L12" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M12" s="38" t="s">
         <v>69</v>
@@ -2286,11 +2425,11 @@
       <c r="N12" s="63"/>
       <c r="O12" s="65"/>
       <c r="P12" s="64"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="108" t="s">
+      <c r="Q12" s="98"/>
+      <c r="R12" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="S12" s="106"/>
+      <c r="S12" s="100"/>
       <c r="T12" s="44"/>
       <c r="U12" s="49"/>
       <c r="V12" s="66"/>
@@ -2307,19 +2446,29 @@
         <v>68</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
+      <c r="F13" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="115">
+        <v>42375</v>
+      </c>
+      <c r="I13" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="115">
+        <v>42375</v>
+      </c>
       <c r="K13" s="63"/>
       <c r="L13" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M13" s="38" t="s">
         <v>69</v>
@@ -2327,17 +2476,17 @@
       <c r="N13" s="63"/>
       <c r="O13" s="65"/>
       <c r="P13" s="64"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="108" t="s">
+      <c r="Q13" s="98"/>
+      <c r="R13" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="S13" s="106"/>
+      <c r="S13" s="100"/>
       <c r="T13" s="44"/>
       <c r="U13" s="49"/>
       <c r="V13" s="66"/>
       <c r="W13" s="51"/>
     </row>
-    <row r="14" spans="1:23" s="31" customFormat="1" ht="27" customHeight="1">
+    <row r="14" spans="1:23" ht="27" customHeight="1">
       <c r="A14" s="36">
         <v>13</v>
       </c>
@@ -2347,38 +2496,47 @@
       <c r="C14" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="37" t="s">
-        <v>100</v>
+      <c r="D14" s="43" t="s">
+        <v>112</v>
       </c>
       <c r="E14" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="63"/>
+      <c r="F14" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="115">
+        <v>42375</v>
+      </c>
+      <c r="I14" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="115">
+        <v>42375</v>
+      </c>
+      <c r="K14" s="73"/>
       <c r="L14" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M14" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="N14" s="63"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="108" t="s">
-        <v>88</v>
-      </c>
-      <c r="S14" s="106"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="102" t="s">
+        <v>81</v>
+      </c>
+      <c r="S14" s="100"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="51"/>
-    </row>
-    <row r="15" spans="1:23" ht="27" customHeight="1">
+      <c r="U14" s="44"/>
+      <c r="V14" s="45"/>
+    </row>
+    <row r="15" spans="1:23" ht="24" customHeight="1">
       <c r="A15" s="67">
         <v>14</v>
       </c>
@@ -2388,37 +2546,47 @@
       <c r="C15" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="43" t="s">
-        <v>101</v>
+      <c r="D15" s="41" t="s">
+        <v>99</v>
       </c>
       <c r="E15" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="74"/>
+      <c r="F15" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="115">
+        <v>42375</v>
+      </c>
+      <c r="I15" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="115">
+        <v>42375</v>
+      </c>
+      <c r="K15" s="38"/>
       <c r="L15" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M15" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="N15" s="68"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="S15" s="106"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="S15" s="44"/>
       <c r="T15" s="44"/>
       <c r="U15" s="44"/>
-      <c r="V15" s="45"/>
-    </row>
-    <row r="16" spans="1:23" ht="21" customHeight="1">
+      <c r="V15" s="52"/>
+    </row>
+    <row r="16" spans="1:23" ht="24.75" customHeight="1">
       <c r="A16" s="36">
         <v>15</v>
       </c>
@@ -2429,19 +2597,29 @@
         <v>68</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
+      <c r="F16" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="115">
+        <v>42375</v>
+      </c>
+      <c r="I16" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="115">
+        <v>42375</v>
+      </c>
       <c r="K16" s="38"/>
       <c r="L16" s="47" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="M16" s="38" t="s">
         <v>69</v>
@@ -2450,15 +2628,15 @@
       <c r="O16" s="47"/>
       <c r="P16" s="39"/>
       <c r="Q16" s="47"/>
-      <c r="R16" s="108" t="s">
-        <v>104</v>
+      <c r="R16" s="102" t="s">
+        <v>103</v>
       </c>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
       <c r="U16" s="44"/>
       <c r="V16" s="52"/>
     </row>
-    <row r="17" spans="1:22" ht="21" customHeight="1">
+    <row r="17" spans="1:22" ht="24.75" customHeight="1">
       <c r="A17" s="67">
         <v>16</v>
       </c>
@@ -2469,19 +2647,29 @@
         <v>68</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E17" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
+      <c r="F17" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="115">
+        <v>42375</v>
+      </c>
+      <c r="I17" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="115">
+        <v>42375</v>
+      </c>
       <c r="K17" s="38"/>
       <c r="L17" s="47" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="M17" s="38" t="s">
         <v>69</v>
@@ -2490,15 +2678,15 @@
       <c r="O17" s="47"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="47"/>
-      <c r="R17" s="108" t="s">
-        <v>108</v>
-      </c>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="52"/>
-    </row>
-    <row r="18" spans="1:22" ht="21" customHeight="1">
+      <c r="R17" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="55"/>
+    </row>
+    <row r="18" spans="1:22" ht="24.75" customHeight="1">
       <c r="A18" s="36">
         <v>17</v>
       </c>
@@ -2509,19 +2697,29 @@
         <v>68</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E18" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
+      <c r="F18" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="115">
+        <v>42375</v>
+      </c>
+      <c r="I18" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" s="115">
+        <v>42375</v>
+      </c>
       <c r="K18" s="38"/>
       <c r="L18" s="47" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="M18" s="38" t="s">
         <v>69</v>
@@ -2530,52 +2728,36 @@
       <c r="O18" s="47"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="47"/>
-      <c r="R18" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
+      <c r="R18" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
       <c r="V18" s="55"/>
     </row>
-    <row r="19" spans="1:22" ht="21" customHeight="1">
-      <c r="A19" s="67">
-        <v>18</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>70</v>
-      </c>
+    <row r="19" spans="1:22" ht="23.25" customHeight="1">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="42"/>
       <c r="G19" s="38"/>
       <c r="H19" s="39"/>
       <c r="I19" s="38"/>
       <c r="J19" s="39"/>
       <c r="K19" s="38"/>
-      <c r="L19" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="M19" s="38" t="s">
-        <v>69</v>
-      </c>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
       <c r="N19" s="47"/>
       <c r="O19" s="47"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="47"/>
-      <c r="R19" s="108" t="s">
-        <v>110</v>
-      </c>
+      <c r="R19" s="47"/>
       <c r="S19" s="56"/>
       <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
+      <c r="U19" s="57"/>
       <c r="V19" s="55"/>
     </row>
     <row r="20" spans="1:22" ht="16.5">
@@ -2599,7 +2781,7 @@
       <c r="R20" s="47"/>
       <c r="S20" s="56"/>
       <c r="T20" s="56"/>
-      <c r="U20" s="57"/>
+      <c r="U20" s="56"/>
       <c r="V20" s="55"/>
     </row>
     <row r="21" spans="1:22" ht="16.5">
@@ -2614,7 +2796,7 @@
       <c r="I21" s="38"/>
       <c r="J21" s="39"/>
       <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
+      <c r="L21" s="47"/>
       <c r="M21" s="38"/>
       <c r="N21" s="47"/>
       <c r="O21" s="47"/>
@@ -2644,11 +2826,11 @@
       <c r="O22" s="47"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="55"/>
+      <c r="R22" s="91"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="47"/>
     </row>
     <row r="23" spans="1:22" ht="16.5">
       <c r="A23" s="36"/>
@@ -2668,11 +2850,11 @@
       <c r="O23" s="47"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="47"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="52"/>
     </row>
     <row r="24" spans="1:22" ht="16.5">
       <c r="A24" s="36"/>
@@ -2733,7 +2915,7 @@
       <c r="H26" s="39"/>
       <c r="I26" s="38"/>
       <c r="J26" s="39"/>
-      <c r="K26" s="38"/>
+      <c r="K26" s="42"/>
       <c r="L26" s="47"/>
       <c r="M26" s="38"/>
       <c r="N26" s="47"/>
@@ -2741,34 +2923,34 @@
       <c r="P26" s="39"/>
       <c r="Q26" s="47"/>
       <c r="R26" s="47"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="52"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="55"/>
     </row>
     <row r="27" spans="1:22" ht="16.5">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
-      <c r="D27" s="41"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="38"/>
-      <c r="F27" s="42"/>
+      <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="39"/>
       <c r="I27" s="38"/>
       <c r="J27" s="39"/>
-      <c r="K27" s="42"/>
+      <c r="K27" s="38"/>
       <c r="L27" s="47"/>
       <c r="M27" s="38"/>
-      <c r="N27" s="47"/>
+      <c r="N27" s="38"/>
       <c r="O27" s="47"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="47"/>
       <c r="R27" s="47"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="55"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="50"/>
     </row>
     <row r="28" spans="1:22" ht="16.5">
       <c r="A28" s="36"/>
@@ -2792,7 +2974,7 @@
       <c r="S28" s="44"/>
       <c r="T28" s="44"/>
       <c r="U28" s="44"/>
-      <c r="V28" s="50"/>
+      <c r="V28" s="52"/>
     </row>
     <row r="29" spans="1:22" ht="16.5">
       <c r="A29" s="36"/>
@@ -3014,24 +3196,24 @@
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
-      <c r="D38" s="37"/>
+      <c r="D38" s="40"/>
       <c r="E38" s="38"/>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
       <c r="H38" s="39"/>
-      <c r="I38" s="38"/>
+      <c r="I38" s="39"/>
       <c r="J38" s="39"/>
       <c r="K38" s="38"/>
       <c r="L38" s="47"/>
-      <c r="M38" s="38"/>
+      <c r="M38" s="47"/>
       <c r="N38" s="38"/>
       <c r="O38" s="47"/>
       <c r="P38" s="39"/>
       <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="44"/>
+      <c r="R38" s="91"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
       <c r="V38" s="52"/>
     </row>
     <row r="39" spans="1:22" ht="16.5">
@@ -3052,7 +3234,7 @@
       <c r="O39" s="47"/>
       <c r="P39" s="39"/>
       <c r="Q39" s="47"/>
-      <c r="R39" s="96"/>
+      <c r="R39" s="91"/>
       <c r="S39" s="53"/>
       <c r="T39" s="53"/>
       <c r="U39" s="53"/>
@@ -3062,25 +3244,25 @@
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
-      <c r="D40" s="40"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="38"/>
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
       <c r="H40" s="39"/>
       <c r="I40" s="39"/>
       <c r="J40" s="39"/>
-      <c r="K40" s="38"/>
+      <c r="K40" s="48"/>
       <c r="L40" s="47"/>
       <c r="M40" s="47"/>
       <c r="N40" s="38"/>
       <c r="O40" s="47"/>
       <c r="P40" s="39"/>
       <c r="Q40" s="47"/>
-      <c r="R40" s="96"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
-      <c r="V40" s="52"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="45"/>
     </row>
     <row r="41" spans="1:22" ht="16.5">
       <c r="A41" s="36"/>
@@ -3227,24 +3409,24 @@
       <c r="V46" s="45"/>
     </row>
     <row r="47" spans="1:22" ht="16.5">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="38"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="44"/>
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="46"/>
       <c r="K47" s="48"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="47"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="47"/>
-      <c r="R47" s="47"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="45"/>
       <c r="S47" s="44"/>
       <c r="T47" s="44"/>
       <c r="U47" s="44"/>
@@ -3617,7 +3799,7 @@
       <c r="D63" s="45"/>
       <c r="E63" s="44"/>
       <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
+      <c r="G63" s="44"/>
       <c r="H63" s="46"/>
       <c r="I63" s="44"/>
       <c r="J63" s="46"/>
@@ -3754,13 +3936,13 @@
       <c r="U68" s="44"/>
       <c r="V68" s="45"/>
     </row>
-    <row r="69" spans="1:22" ht="16.5">
+    <row r="69" spans="1:22">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
       <c r="D69" s="45"/>
       <c r="E69" s="44"/>
-      <c r="F69" s="38"/>
+      <c r="F69" s="44"/>
       <c r="G69" s="44"/>
       <c r="H69" s="46"/>
       <c r="I69" s="44"/>
@@ -5212,10 +5394,6 @@
       <c r="O129" s="44"/>
       <c r="P129" s="46"/>
       <c r="Q129" s="45"/>
-      <c r="R129" s="45"/>
-      <c r="S129" s="44"/>
-      <c r="T129" s="44"/>
-      <c r="U129" s="44"/>
       <c r="V129" s="45"/>
     </row>
     <row r="130" spans="1:22">
@@ -5898,31 +6076,14 @@
       <c r="Q163" s="45"/>
       <c r="V163" s="45"/>
     </row>
-    <row r="164" spans="1:22">
-      <c r="A164" s="44"/>
-      <c r="B164" s="44"/>
-      <c r="C164" s="44"/>
-      <c r="D164" s="45"/>
-      <c r="E164" s="44"/>
-      <c r="F164" s="44"/>
-      <c r="G164" s="44"/>
-      <c r="H164" s="46"/>
-      <c r="I164" s="44"/>
-      <c r="J164" s="46"/>
-      <c r="K164" s="48"/>
-      <c r="L164" s="44"/>
-      <c r="M164" s="44"/>
-      <c r="N164" s="44"/>
-      <c r="O164" s="44"/>
-      <c r="P164" s="46"/>
-      <c r="Q164" s="45"/>
-      <c r="V164" s="45"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U16:U1048576 U10:U14 U6:U7 U1:U2 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U15:U1048576 U9:U13 U5:U6 U1:U2 G1:G1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R19:R1048576 Q1:Q1048576">
+      <formula1>"能,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
@@ -5939,30 +6100,26 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576 R20:R1048576">
-      <formula1>"能,否"</formula1>
-    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="R5" r:id="rId1" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
-    <hyperlink ref="R6" r:id="rId2" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
-    <hyperlink ref="R7" r:id="rId3" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
-    <hyperlink ref="R15" r:id="rId4" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
-    <hyperlink ref="R8" r:id="rId5" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
-    <hyperlink ref="R10" r:id="rId6" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
-    <hyperlink ref="R12" r:id="rId7" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
-    <hyperlink ref="R14" r:id="rId8" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
-    <hyperlink ref="R9" r:id="rId9" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
-    <hyperlink ref="R11" r:id="rId10" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
-    <hyperlink ref="R13" r:id="rId11" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R4" r:id="rId1" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R5" r:id="rId2" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R6" r:id="rId3" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R14" r:id="rId4" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R7" r:id="rId5" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R9" r:id="rId6" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R11" r:id="rId7" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R13" r:id="rId8" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R8" r:id="rId9" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R10" r:id="rId10" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R12" r:id="rId11" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
     <hyperlink ref="R2" r:id="rId12" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
     <hyperlink ref="R3" r:id="rId13" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
-    <hyperlink ref="R4" r:id="rId14" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
-    <hyperlink ref="R16" r:id="rId15" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
-    <hyperlink ref="R17:R19" r:id="rId16" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R15" r:id="rId14" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
+    <hyperlink ref="R16:R18" r:id="rId15" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/DV-1930"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -6055,209 +6212,209 @@
       <c r="A2" s="62"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
       <c r="Q2" s="15"/>
-      <c r="R2" s="90"/>
+      <c r="R2" s="85"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="62"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
       <c r="Q3" s="15"/>
-      <c r="R3" s="90"/>
+      <c r="R3" s="85"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="62"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
       <c r="Q4" s="15"/>
-      <c r="R4" s="90"/>
+      <c r="R4" s="85"/>
     </row>
     <row r="5" spans="1:18" ht="16.5">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
       <c r="Q5" s="15"/>
-      <c r="R5" s="90"/>
+      <c r="R5" s="85"/>
     </row>
     <row r="6" spans="1:18" ht="16.5">
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
       <c r="Q6" s="15"/>
-      <c r="R6" s="90"/>
+      <c r="R6" s="85"/>
     </row>
     <row r="7" spans="1:18" ht="16.5">
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
       <c r="Q7" s="15"/>
-      <c r="R7" s="90"/>
+      <c r="R7" s="85"/>
     </row>
     <row r="8" spans="1:18" ht="16.5">
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
       <c r="Q8" s="15"/>
-      <c r="R8" s="90"/>
+      <c r="R8" s="85"/>
     </row>
     <row r="9" spans="1:18" ht="16.5">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="90"/>
+      <c r="R9" s="85"/>
     </row>
     <row r="10" spans="1:18" ht="16.5">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="90"/>
+      <c r="R10" s="85"/>
     </row>
     <row r="11" spans="1:18" ht="16.5">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="90"/>
+      <c r="R11" s="85"/>
     </row>
     <row r="12" spans="1:18" ht="16.5">
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="89"/>
+      <c r="D12" s="84"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="91"/>
+      <c r="F12" s="86"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="85"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="9"/>
@@ -6266,245 +6423,245 @@
     <row r="13" spans="1:18" ht="16.5">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="89"/>
+      <c r="D13" s="84"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="91"/>
+      <c r="F13" s="86"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="85"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
     </row>
-    <row r="14" spans="1:18" s="92" customFormat="1" ht="16.5">
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
+    <row r="14" spans="1:18" s="87" customFormat="1" ht="16.5">
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
     </row>
     <row r="15" spans="1:18" ht="16.5">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
       <c r="Q15" s="15"/>
-      <c r="R15" s="90"/>
+      <c r="R15" s="85"/>
     </row>
     <row r="16" spans="1:18" ht="16.5">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
       <c r="Q16" s="15"/>
-      <c r="R16" s="90"/>
+      <c r="R16" s="85"/>
     </row>
     <row r="17" spans="2:18" ht="16.5">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
       <c r="Q17" s="15"/>
-      <c r="R17" s="90"/>
+      <c r="R17" s="85"/>
     </row>
     <row r="18" spans="2:18" ht="16.5">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
       <c r="Q18" s="15"/>
-      <c r="R18" s="90"/>
+      <c r="R18" s="85"/>
     </row>
     <row r="19" spans="2:18" ht="16.5">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
       <c r="Q19" s="15"/>
-      <c r="R19" s="90"/>
+      <c r="R19" s="85"/>
     </row>
     <row r="20" spans="2:18" ht="16.5">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
       <c r="Q20" s="15"/>
-      <c r="R20" s="90"/>
+      <c r="R20" s="85"/>
     </row>
     <row r="21" spans="2:18" ht="16.5">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
       <c r="Q21" s="15"/>
-      <c r="R21" s="90"/>
+      <c r="R21" s="85"/>
     </row>
     <row r="22" spans="2:18" ht="16.5">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
       <c r="Q22" s="15"/>
-      <c r="R22" s="90"/>
+      <c r="R22" s="85"/>
     </row>
     <row r="23" spans="2:18" ht="16.5">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
       <c r="Q23" s="15"/>
-      <c r="R23" s="90"/>
+      <c r="R23" s="85"/>
     </row>
     <row r="24" spans="2:18" ht="16.5">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
       <c r="Q24" s="15"/>
-      <c r="R24" s="90"/>
+      <c r="R24" s="85"/>
     </row>
     <row r="25" spans="2:18" ht="16.5">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="89"/>
+      <c r="D25" s="84"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="91"/>
+      <c r="F25" s="86"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
       <c r="O25" s="11"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
@@ -6513,17 +6670,17 @@
     <row r="26" spans="2:18" ht="16.5">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
-      <c r="D26" s="89"/>
+      <c r="D26" s="84"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="91"/>
+      <c r="F26" s="86"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="85"/>
       <c r="O26" s="11"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
@@ -6540,7 +6697,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6556,19 +6713,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -6606,8 +6763,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6619,8 +6776,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="112"/>
-      <c r="B4" s="113"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6632,8 +6789,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="111"/>
-      <c r="B5" s="111"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6645,8 +6802,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="113"/>
-      <c r="B6" s="113"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6658,8 +6815,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="113"/>
-      <c r="B7" s="113"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6671,8 +6828,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="113"/>
-      <c r="B8" s="113"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6684,8 +6841,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="113"/>
-      <c r="B9" s="113"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6697,8 +6854,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="112"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6759,36 +6916,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="115"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="109"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="117"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="111"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7073,36 +7230,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="115"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="109"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="117"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="111"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7145,7 +7302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="78" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="77" customFormat="1" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7160,35 +7317,35 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="78" customFormat="1" ht="16.5">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="76"/>
-    </row>
-    <row r="6" spans="1:13" s="78" customFormat="1" ht="16.5">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="76"/>
+    <row r="5" spans="1:13" s="77" customFormat="1" ht="16.5">
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="75"/>
+    </row>
+    <row r="6" spans="1:13" s="77" customFormat="1" ht="16.5">
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="75"/>
     </row>
     <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
@@ -7387,36 +7544,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="115"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="109"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="117"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="111"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7459,7 +7616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="78" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="77" customFormat="1" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7474,35 +7631,35 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="78" customFormat="1" ht="16.5">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="76"/>
-    </row>
-    <row r="6" spans="1:13" s="78" customFormat="1" ht="16.5">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="76"/>
+    <row r="5" spans="1:13" s="77" customFormat="1" ht="16.5">
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="75"/>
+    </row>
+    <row r="6" spans="1:13" s="77" customFormat="1" ht="16.5">
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="75"/>
     </row>
     <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
@@ -7703,36 +7860,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="115"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="109"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="117"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="111"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7775,7 +7932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="78" customFormat="1" ht="16.5">
+    <row r="4" spans="1:13" s="77" customFormat="1" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7790,35 +7947,35 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="78" customFormat="1" ht="16.5">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="76"/>
-    </row>
-    <row r="6" spans="1:13" s="78" customFormat="1" ht="16.5">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="76"/>
+    <row r="5" spans="1:13" s="77" customFormat="1" ht="16.5">
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="75"/>
+    </row>
+    <row r="6" spans="1:13" s="77" customFormat="1" ht="16.5">
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="75"/>
     </row>
     <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
